--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -5962,12 +5962,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>앱 배달</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하면 서브넷 간 트래픽뿐만 아니라 플랫폼 전체의 동/서 트래픽(랜딩 영역 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 응용 프로그램 프록시를 사용하여 원격 사용자에게 내부 응용 프로그램에 대한 안전하고 인증된 액세스 권한을 부여하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5984,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 팀은 서브넷 수준 NSG에서 응용 프로그램 보안 그룹을 사용하여 방문 영역 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>NSG를 사용하면 서브넷 간 트래픽뿐만 아니라 플랫폼 전체의 동/서 트래픽(랜딩 영역 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,7 +6034,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
@@ -6046,7 +6046,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 영역 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 마십시오.</t>
+          <t>응용 프로그램 팀은 서브넷 수준 NSG에서 응용 프로그램 보안 그룹을 사용하여 방문 영역 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6084,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6096,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 통찰력을 얻을 수 있습니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 영역 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 마십시오.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,14 +6139,14 @@
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 랜딩 영역 간의 연결을 선택적으로 허용합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 통찰력을 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6189,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN 토폴로지의 경우 조직에서 방문 영역 간에 흐르는 트래픽에 대해 필터링 및 로깅 기능이 필요한 경우 Azure 방화벽을 통해 방문 영역 간에 트래픽을 라우팅합니다.</t>
+          <t>NSG를 사용하여 랜딩 영역 간의 연결을 선택적으로 허용합니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6239,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6262,12 +6262,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 두 수준에서 트래픽을 암호화하기 위해 MACsec을 구성합니다. 다이어그램은 이 암호화를 흐름에 보여 줍니다.</t>
+          <t>Virtual WAN 토폴로지의 경우 조직에서 방문 영역 간에 흐르는 트래픽에 대해 필터링 및 로깅 기능이 필요한 경우 Azure 방화벽을 통해 방문 영역 간에 트래픽을 라우팅합니다.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6287,12 +6287,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6313,7 +6317,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 두 수준에서 트래픽을 암호화하기 위해 MACsec을 구성합니다. 다이어그램은 이 암호화를 흐름에 보여 줍니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6330,19 +6334,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: ExpressRoute Direct를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,7 +6380,7 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6392,7 +6392,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>제한된 캡처 창에도 불구하고 네트워크 감시자 패킷을 사용하여 캡처합니다.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: ExpressRoute Direct를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,19 +6430,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 수준을 제공하는지 여부를 평가합니다.</t>
+          <t>제한된 캡처 창에도 불구하고 네트워크 감시자 패킷을 사용하여 캡처합니다.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,14 +6480,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6508,7 +6513,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
+          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 수준을 제공하는지 여부를 평가합니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6525,7 +6530,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6533,7 +6538,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6554,7 +6559,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
+          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6571,14 +6576,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6589,17 +6594,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책이 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
+          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6616,19 +6621,15 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6649,7 +6650,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>착륙 구역이 문서화되어 있습니까?</t>
+          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책이 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6664,13 +6665,21 @@
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6691,7 +6700,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 한 번 쓰기, 많은 읽기 정책과 함께 변경할 수 없는 저장소를 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
+          <t>착륙 구역이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6706,21 +6715,13 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H122" s="16" t="n"/>
+      <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6741,7 +6742,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure 정책을 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 한 번 쓰기, 많은 읽기 정책과 함께 변경할 수 없는 저장소를 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6770,7 +6771,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6791,7 +6792,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure 정책을 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6808,19 +6809,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6841,7 +6842,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 자동화의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>Azure 정책을 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6858,19 +6859,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>네트워크 감시자를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t xml:space="preserve">Azure 자동화의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6908,19 +6909,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6941,7 +6942,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스의 실수로 삭제를 방지합니다.</t>
+          <t>네트워크 감시자를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6958,19 +6959,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6991,7 +6992,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일을 마련합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스의 실수로 삭제를 방지합니다.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7008,14 +7009,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,7 +7042,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일을 마련합니다.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7053,14 +7059,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7081,7 +7087,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 처리할 수 있도록 합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7098,14 +7104,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7126,7 +7132,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 태어난 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 처리할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7143,14 +7149,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 응용 프로그램 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 사용하여 로그 액세스를 제어합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 태어난 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7188,14 +7194,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7216,7 +7222,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Azure 모니터 로그를 사용하여 인사이트 및 보고를 수행합니다.</t>
+          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 응용 프로그램 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 사용하여 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7233,14 +7239,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7261,7 +7267,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 저장소에 대해 방문 영역 내에서 공유 저장소 계정을 사용합니다.</t>
+          <t>Azure 모니터 로그를 사용하여 인사이트 및 보고를 수행합니다.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7278,14 +7284,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7306,7 +7312,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>작업 경고 생성을 위해 Azure Monitor 경고를 사용합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 저장소에 대해 방문 영역 내에서 공유 저장소 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7323,14 +7329,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7351,7 +7357,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 여러 지역에서 워크로드를 복제할 수 있습니다.</t>
+          <t>작업 경고 생성을 위해 Azure Monitor 경고를 사용합니다.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7368,14 +7374,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7396,7 +7402,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 여러 지역에서 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7413,14 +7419,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7441,7 +7447,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7458,14 +7464,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7476,23 +7482,23 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7503,14 +7509,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7531,13 +7537,13 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>서로 다른 응용 프로그램 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 크기 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7548,14 +7554,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7576,7 +7582,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 설정된 소프트 삭제 및 제거 정책을 사용하여 Azure Key Vault를 프로비전합니다.</t>
+          <t>서로 다른 응용 프로그램 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 크기 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7593,14 +7599,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7621,7 +7627,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 설정된 소프트 삭제 및 제거 정책을 사용하여 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7645,7 +7651,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7666,7 +7672,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>공공 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,7 +7696,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7711,7 +7717,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>공공 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7735,7 +7741,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7756,7 +7762,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 끝점 또는 개인 끝점을 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7780,7 +7786,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7801,7 +7807,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사할 수 있습니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 끝점 또는 개인 끝점을 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7818,14 +7824,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7846,7 +7852,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 준수 구성을 적용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사할 수 있습니다.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7863,14 +7869,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7891,7 +7897,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>주체 암호화 기능을 위해 Microsoft에서 관리하는 키로 기본 설정되며 필요한 경우 고객 관리 키를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7908,14 +7914,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7936,7 +7942,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>지역별 환경당 응용 프로그램당 Azure Key Vault를 사용합니다.</t>
+          <t>주체 암호화 기능을 위해 Microsoft에서 관리하는 키로 기본 설정되며 필요한 경우 고객 관리 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7953,14 +7959,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7981,7 +7987,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>지역별 환경당 응용 프로그램당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8005,7 +8011,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8021,18 +8027,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책 활용</t>
+          <t>자체 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8043,14 +8049,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8071,13 +8077,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용을 적용합니다.</t>
+          <t>Azure 정책 활용</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8088,14 +8094,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8116,7 +8122,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8133,14 +8139,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8161,7 +8167,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8185,7 +8191,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8206,7 +8212,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 하위 수준에서 제외를 사용하여 적절한 가장 높은 수준에서 정책 할당을 관리합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8230,7 +8236,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8251,13 +8257,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
+          <t>필요한 경우 하위 수준에서 제외를 사용하여 적절한 가장 높은 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8275,7 +8281,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8296,13 +8302,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>Azure 정책을 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8320,7 +8326,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8341,7 +8347,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8365,7 +8371,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8386,7 +8392,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
+          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8410,7 +8416,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8431,7 +8437,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 준수 기준 VM 구성을 적용합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8455,7 +8461,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8476,7 +8482,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 준수 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8500,7 +8506,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8516,12 +8522,12 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8538,14 +8544,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8566,7 +8572,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8583,14 +8589,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 클라우드 표준에 대해 Defender를 사용하도록 설정합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8628,14 +8634,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8656,7 +8662,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 방어자를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>모든 구독에 대해 클라우드 표준에 대해 Defender를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8680,7 +8686,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8701,7 +8707,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 방어자를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8718,14 +8724,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8746,7 +8752,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8763,14 +8769,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8791,7 +8797,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8808,14 +8814,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8836,7 +8842,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8853,14 +8859,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8881,7 +8887,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청 처리 방법 계획</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8905,7 +8911,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8914,15 +8920,45 @@
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Azure 서비스에 대한 서비스 요청 처리 방법 계획</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10981,7 +11017,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F171" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -5884,12 +5884,12 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2117,7 +2117,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -7048,7 +7048,7 @@
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -11016,7 +11016,19 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용정 역할을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
+          <t>트래픽을 미러링하는 사용정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용정 역할을 사용하는 것이 좋습니다.</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1795,17 +1795,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>관리 그룹 및 구독</t>
+          <t>ID 및 액세스</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>구독</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>합리적으로 평평한 관리 그룹 계층 구조를 서너 개 이하의 수준으로 시행하십시오.</t>
+          <t>Azure AD 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1822,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 통해 리소스 태그 적용 또는 추가</t>
+          <t>합리적으로 평평한 관리 그룹 계층 구조를 서너 개 이하의 수준으로 시행하십시오.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1872,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>샌드박스 관리 그룹을 적용하여 사용자가 Azure를 즉시 실험할 수 있도록 합니다.</t>
+          <t>Azure 정책을 통해 리소스 태그 적용 또는 추가</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1922,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 공통 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
+          <t>샌드박스 관리 그룹을 적용하여 사용자가 Azure를 즉시 실험할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 관리 그룹에 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 개인 DNS(도메인 이름 시스템), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스팅합니다.</t>
+          <t>루트 관리 그룹 아래에 플랫폼 관리 그룹을 적용하여 공통 플랫폼 정책 및 Azure 역할 할당을 지원합니다.</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 적용</t>
+          <t>플랫폼 관리 그룹에 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 개인 DNS(도메인 이름 시스템), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스팅합니다.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2072,14 +2072,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 운영할 수 있도록 적용합니다.</t>
+          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 적용</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2117,14 +2122,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>루트 수준 관리 그룹 아래에 관리 그룹을 적용하여 보안, 규정 준수, 연결 및 기능 요구 사항에 따라 워크로드 유형을 나타냅니다.</t>
+          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 운영할 수 있도록 적용합니다.</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2162,14 +2167,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2190,13 +2195,13 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토에 액세스하고, 예산 검토하고, 정책 준수를 준수하고, 필요한 경우 수정하도록 프로세스를 시행합니다.</t>
+          <t>루트 수준 관리 그룹 아래에 관리 그룹을 적용하여 보안, 규정 준수, 연결 및 기능 요구 사항에 따라 워크로드 유형을 나타냅니다.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2214,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2235,13 +2240,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀은 워크로드 디자인 세션의 일부로 구독 지원 제한을 인식하고 있습니다.</t>
+          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토에 액세스하고, 예산 검토하고, 정책 준수를 준수하고, 필요한 경우 수정하도록 프로세스를 시행합니다.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2252,14 +2257,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2280,13 +2285,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>예약 인스턴스를 사용하여 필요한 지역에서 예약된 용량의 우선 순위를 지정합니다. 그러면 특정 지역에서 해당 리소스에 대한 수요가 높은 경우에도 워크로드에 필요한 용량이 생깁니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀은 워크로드 디자인 세션의 일부로 구독 지원 제한을 인식하고 있습니다.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2297,19 +2302,15 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I32" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준을 모니터링합니다.</t>
+          <t>예약 인스턴스를 사용하여 필요한 지역에서 예약된 용량의 우선 순위를 지정합니다. 그러면 특정 지역에서 해당 리소스에 대한 수요가 높은 경우에도 워크로드에 필요한 용량이 생깁니다.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2347,19 +2348,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2380,13 +2381,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인</t>
+          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2397,19 +2398,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2430,13 +2431,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>비용 관리를 위한 프로세스 적용</t>
+          <t>선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2447,19 +2448,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2480,13 +2481,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 플랫폼 관리 그룹에 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
+          <t>비용 관리를 위한 프로세스 적용</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2497,19 +2498,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
+          <t>Windows Server의 AD인 경우 플랫폼 관리 그룹에 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2547,19 +2548,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2570,17 +2571,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 그룹 및 구독</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>구독</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 없는지 확인</t>
+          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2597,19 +2598,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>개인 인터넷(RFC 1918)에 대한 주소 할당의 IP 주소를 사용해야 합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 없는지 확인</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2659,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록하고 불필요하게 큰 가상 네트워크를 만들지 마십시오 (예 : /16). </t>
+          <t>개인 인터넷(RFC 1918)에 대한 주소 할당의 IP 주소를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2709,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>특히 조직이 소유하지 않은 경우 VNET에 대한 CIDR 주소 범위(CIDR 블록)가 없는지 확인합니다.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록하고 불필요하게 큰 가상 네트워크를 만들지 마십시오 (예 : /16). </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2759,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>특히 조직이 소유하지 않은 경우 VNET에 대한 CIDR 주소 범위(CIDR 블록)가 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2797,19 +2798,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Azure의 이름 확인이 필요한 환경의 경우 해결을 위해 Azure 개인 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2847,7 +2848,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
@@ -2859,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 컴퓨터)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 이러한 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
+          <t>Azure의 이름 확인이 필요한 환경의 경우 해결을 위해 Azure 개인 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2909,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 필요로 하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 컴퓨터)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 이러한 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,13 +2949,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 컴퓨터에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 필요로 하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,19 +2998,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3020,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>IP 계획</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 컴퓨터에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3042,19 +3044,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 전체에서 여러 방문 영역을 함께 연결합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3092,14 +3094,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3120,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 세그먼트화합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 전체에서 여러 방문 영역을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3144,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
+          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 세그먼트화합니다.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3185,16 +3192,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 Virtual WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 Virtual WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
+          <t>ExpressRoute를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>지점 및 사이트 간 VPN을 통해 사용자를 Virtual WAN 허브에 연결합니다.</t>
+          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 Virtual WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 Virtual WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3294,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙을 준수하여 Microsoft 백본 네트워크를 통해 Azure의 리소스 간 통신이 이루어지도록 합니다.</t>
+          <t>지점 및 사이트 간 VPN을 통해 사용자를 Virtual WAN 허브에 연결합니다.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3333,13 +3336,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
+          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙을 준수하여 Microsoft 백본 네트워크를 통해 Azure의 리소스 간 통신이 이루어지도록 합니다.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3380,16 +3388,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN에 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3428,13 +3432,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어져 있는지 확인합니다.</t>
+          <t>VWAN에 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3479,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
+          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어져 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3517,14 +3526,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3545,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN용 Azure Monitor 인사이트를 사용하여 가상 WAN의 종단 간 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3562,14 +3571,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3585,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 디자인을 고려하십시오: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 여러 Azure 지역에 걸쳐 있으며 지역 간 방문 영역에 대해 가상 네트워크 간의 전이 연결이 필요하지 않습니다. Azure 지역 간에 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 ExpressRoute 연결 간의 전이 연결이 필요 없는 네트워크 아키텍처; 주요 하이브리드 연결 방법은 ExpressRoute이며 VPN 연결 수는 VPN 게이트웨이 당 30 개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
+          <t>가상 WAN용 Azure Monitor 인사이트를 사용하여 가상 WAN의 종단 간 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3607,19 +3616,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure 방화벽을 비롯한 공유 서비스 또는 중앙 허브 가상 네트워크의 파트너 NVA가 있는지 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 디자인을 고려하십시오: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 여러 Azure 지역에 걸쳐 있으며 지역 간 방문 영역에 대해 가상 네트워크 간의 전이 연결이 필요하지 않습니다. Azure 지역 간에 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 ExpressRoute 연결 간의 전이 연결이 필요 없는 네트워크 아키텍처; 주요 하이브리드 연결 방법은 ExpressRoute이며 VPN 연결 수는 VPN 게이트웨이 당 30 개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3657,14 +3661,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때는 파트너 공급업체의 지침을 따릅니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure 방화벽을 비롯한 공유 서비스 또는 중앙 허브 가상 네트워크의 파트너 NVA가 있는지 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3702,14 +3711,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마십시오. 대신 해당 방문 영역에 앱과 함께 배포합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때는 파트너 공급업체의 지침을 따릅니다.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3747,14 +3756,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
+          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마십시오. 대신 해당 방문 영역에 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3792,7 +3801,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3800,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역 전체에 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 소수의 방문 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 착륙 영역 가상 네트워크를 연결합니다. </t>
+          <t>ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3838,19 +3847,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,7 +3876,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 간 모든 방문 영역 간의 전송 연결이 필요한 경우 이중 회로와 함께 ExpressRoute를 사용하여 Azure 지역 전체의 착륙 영역 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
+          <t xml:space="preserve">Azure 지역 전체에 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 소수의 방문 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 착륙 영역 가상 네트워크를 연결합니다. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3888,19 +3893,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 종단 간 상태를 모니터링합니다.</t>
+          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 간 모든 방문 영역 간의 전송 연결이 필요한 경우 이중 회로와 함께 ExpressRoute를 사용하여 Azure 지역 전체의 착륙 영역 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3938,19 +3943,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한과 ExpressRoute를 통해 알릴 수 있는 최대 접두사 수를 고려합니다.</t>
+          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 종단 간 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3988,15 +3993,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4012,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 및 스포크</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한과 ExpressRoute를 통해 알릴 수 있는 최대 접두사 수를 고려합니다.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4034,19 +4043,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4084,7 +4089,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4096,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4146,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4184,7 +4189,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4196,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4234,7 +4239,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4246,7 +4251,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4284,7 +4289,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4296,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 지점 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4346,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute 글로벌 리치를 사용하여 ExpressRoute를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
+          <t>VPN 게이트웨이를 사용하여 지점 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4384,7 +4389,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4396,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 것과 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>ExpressRoute 글로벌 리치를 사용하여 ExpressRoute를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4434,7 +4439,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4446,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 것과 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4484,7 +4489,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4496,7 +4501,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
+          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4534,7 +4539,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4546,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>단일 피어링 위치에서 ExpressRoute 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
+          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4584,7 +4589,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4596,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4612,12 +4617,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다양한 옵션을 고려하십시오.</t>
+          <t>단일 피어링 위치에서 ExpressRoute 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4634,19 +4639,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>가상 네트워크에 주입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리부 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인하십시오.</t>
+          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다양한 옵션을 고려하십시오.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,14 +4694,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>공유 Azure PaaS 서비스에 대해 사용 가능한 경우 개인 링크를 사용합니다.</t>
+          <t>가상 네트워크에 주입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리부 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인하십시오.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4734,19 +4739,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute 개인 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법은 공용 인터넷을 통한 전송을 방지합니다.</t>
+          <t>공유 Azure PaaS 서비스에 대해 사용 가능한 경우 개인 링크를 사용합니다.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,14 +4794,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>개인 링크를 사용할 수 없는 경우 가상 네트워크 서비스 끝점 사용</t>
+          <t>ExpressRoute 개인 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법은 공용 인터넷을 통한 전송을 방지합니다.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,14 +4844,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 끝점을 사용하도록 설정하지 마세요.</t>
+          <t>개인 링크를 사용할 수 없는 경우 가상 네트워크 서비스 끝점 사용</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4896,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>NVA 필터링을 사용하지 않는 한 데이터 유출 문제가 있는 경우 가상 네트워크 서비스 끝점을 사용하지 마십시오.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 끝점을 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4946,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
+          <t>NVA 필터링을 사용하지 않는 한 데이터 유출 문제가 있는 경우 가상 네트워크 서비스 끝점을 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4996,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5012,12 +5017,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>파아스</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S 인바운드 연결이 아닌 연결 및 동부/서부 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
+          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,14 +5044,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN과 함께 방화벽 관리자를 사용하여 가상 WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 가상 WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
+          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S 인바운드 연결이 아닌 연결 및 동부/서부 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5084,7 +5089,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
@@ -5096,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경 전반의 보안 상태를 관리하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 세분화된 정책이 특정 지역의 요구 사항을 충족하도록 허용합니다.</t>
+          <t>가상 WAN과 함께 방화벽 관리자를 사용하여 가상 WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 가상 WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5146,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경 전반의 보안 상태를 관리하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 세분화된 정책이 특정 지역의 요구 사항을 충족하도록 허용합니다.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5196,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,14 +5244,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 방문 영역에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
+          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5284,7 +5289,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5296,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 응용 프로그램 게이트웨이를 잠궈 Azure 프런트 도어에서만 트래픽을 받습니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 방문 영역에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5334,7 +5339,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5346,7 +5351,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 파트너 NVA를 착륙 영역 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 응용 프로그램 게이트웨이를 잠궈 Azure 프런트 도어에서만 트래픽을 받습니다.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,14 +5394,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 보호 표준 보호 계획을 사용하여 가상 네트워크 내에서 호스팅되는 모든 공용 끝점을 보호할 수 있습니다.</t>
+          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 파트너 NVA를 착륙 영역 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5434,19 +5439,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5462,12 +5467,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>내부 지향(회사) 및 외부 연결 앱(온라인) 모두에 대해 방문 영역 내에서 앱 배달을 수행합니다.</t>
+          <t>Azure DDoS 보호 표준 보호 계획을 사용하여 가상 네트워크 내에서 호스팅되는 모든 공용 끝점을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5484,19 +5489,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 전달하려면 애플리케이션 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>내부 지향(회사) 및 외부 연결 앱(온라인) 모두에 대해 방문 영역 내에서 앱 배달을 수행합니다.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5534,7 +5539,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5546,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱의 보안을 위해 애플리케이션 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
+          <t>HTTP/S 앱을 안전하게 전달하려면 애플리케이션 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5584,19 +5589,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>착륙 영역 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 보안 중인 앱과 함께 배포합니다.</t>
+          <t>HTTP/S 앱의 보안을 위해 애플리케이션 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5634,19 +5639,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>방문 구역의 모든 공용 IP 주소에 대해 DDoS 표준 보호 계획을 사용합니다.</t>
+          <t>착륙 영역 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 보안 중인 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,14 +5694,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure Front Door를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
+          <t>방문 구역의 모든 공용 IP 주소에 대해 DDoS 표준 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5746,7 +5751,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. 응용 프로그램 게이트웨이를 잠궈 정문에서만 트래픽을 수신합니다.</t>
+          <t>WAF 정책과 함께 Azure Front Door를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5784,7 +5789,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5796,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
+          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. 응용 프로그램 게이트웨이를 잠궈 정문에서만 트래픽을 수신합니다.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5834,7 +5839,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5846,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,13 +5872,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>사용자가 내부 응용 프로그램에 대한 액세스만 필요한 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었습니까?</t>
+          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5884,19 +5889,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5912,18 +5917,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>앱 배달</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 영역 소유자에게 위임합니다. </t>
+          <t>사용자가 내부 응용 프로그램에 대한 액세스만 필요한 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었습니까?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5934,19 +5939,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5962,12 +5967,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 응용 프로그램 프록시를 사용하여 원격 사용자에게 내부 응용 프로그램에 대한 안전하고 인증된 액세스 권한을 부여하는 것이 좋습니다.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 영역 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5989,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6012,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>앱 배달</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하면 서브넷 간 트래픽뿐만 아니라 플랫폼 전체의 동/서 트래픽(랜딩 영역 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 응용 프로그램 프록시를 사용하여 원격 사용자에게 내부 응용 프로그램에 대한 안전하고 인증된 액세스 권한을 부여하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,19 +6039,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 팀은 서브넷 수준 NSG에서 응용 프로그램 보안 그룹을 사용하여 방문 영역 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>NSG를 사용하면 서브넷 간 트래픽뿐만 아니라 플랫폼 전체의 동/서 트래픽(랜딩 영역 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6089,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6101,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 영역 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 마십시오.</t>
+          <t>응용 프로그램 팀은 서브넷 수준 NSG에서 응용 프로그램 보안 그룹을 사용하여 방문 영역 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6134,7 +6139,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6146,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 통찰력을 얻을 수 있습니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 영역 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 마십시오.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6194,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 랜딩 영역 간의 연결을 선택적으로 허용합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 통찰력을 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6244,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN 토폴로지의 경우 조직에서 방문 영역 간에 흐르는 트래픽에 대해 필터링 및 로깅 기능이 필요한 경우 Azure 방화벽을 통해 방문 영역 간에 트래픽을 라우팅합니다.</t>
+          <t>NSG를 사용하여 랜딩 영역 간의 연결을 선택적으로 허용합니다.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,14 +6294,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6312,12 +6317,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 두 수준에서 트래픽을 암호화하기 위해 MACsec을 구성합니다. 다이어그램은 이 암호화를 흐름에 보여 줍니다.</t>
+          <t>Virtual WAN 토폴로지의 경우 조직에서 방문 영역 간에 흐르는 트래픽에 대해 필터링 및 로깅 기능이 필요한 경우 Azure 방화벽을 통해 방문 영역 간에 트래픽을 라우팅합니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6337,12 +6342,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 두 수준에서 트래픽을 암호화하기 위해 MACsec을 구성합니다. 다이어그램은 이 암호화를 흐름에 보여 줍니다.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,19 +6389,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6413,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: ExpressRoute Direct를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,7 +6434,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6442,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6458,12 +6462,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>제한된 캡처 창에도 불구하고 네트워크 감시자 패킷을 사용하여 캡처합니다.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: ExpressRoute Direct를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,19 +6484,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 수준을 제공하는지 여부를 평가합니다.</t>
+          <t>제한된 캡처 창에도 불구하고 네트워크 감시자 패킷을 사용하여 캡처합니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6530,15 +6534,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6559,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
+          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 수준을 제공하는지 여부를 평가합니다.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6576,14 +6584,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
+          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6621,7 +6629,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6629,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6640,17 +6648,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책이 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
+          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6667,19 +6675,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>착륙 구역이 문서화되어 있습니까?</t>
+          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책이 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,13 +6719,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 한 번 쓰기, 많은 읽기 정책과 함께 변경할 수 없는 저장소를 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
+          <t>착륙 구역이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6757,21 +6769,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure 정책을 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 한 번 쓰기, 많은 읽기 정책과 함께 변경할 수 없는 저장소를 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6821,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6842,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure 정책을 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6859,19 +6863,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 자동화의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>Azure 정책을 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6909,19 +6913,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>네트워크 감시자를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t xml:space="preserve">Azure 자동화의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6959,19 +6963,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스의 실수로 삭제를 방지합니다.</t>
+          <t>네트워크 감시자를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7009,19 +7013,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7042,13 +7046,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일을 마련합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스의 실수로 삭제를 방지합니다.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7059,14 +7063,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7087,13 +7096,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일을 마련합니다.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7104,14 +7113,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7132,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 처리할 수 있도록 합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7149,14 +7158,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7177,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 태어난 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 처리할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7194,14 +7203,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 응용 프로그램 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 사용하여 로그 액세스를 제어합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 태어난 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7239,14 +7248,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7267,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure 모니터 로그를 사용하여 인사이트 및 보고를 수행합니다.</t>
+          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 응용 프로그램 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 사용하여 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7284,14 +7293,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7312,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 저장소에 대해 방문 영역 내에서 공유 저장소 계정을 사용합니다.</t>
+          <t>Azure 모니터 로그를 사용하여 인사이트 및 보고를 수행합니다.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7329,14 +7338,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7357,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>작업 경고 생성을 위해 Azure Monitor 경고를 사용합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 저장소에 대해 방문 영역 내에서 공유 저장소 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7374,14 +7383,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 여러 지역에서 워크로드를 복제할 수 있습니다.</t>
+          <t>작업 경고 생성을 위해 Azure Monitor 경고를 사용합니다.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7419,14 +7428,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 여러 지역에서 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7464,14 +7473,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7492,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
+          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7509,14 +7518,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7527,23 +7536,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7554,14 +7563,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7572,17 +7581,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>서로 다른 응용 프로그램 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 크기 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7599,14 +7608,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7627,13 +7636,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 설정된 소프트 삭제 및 제거 정책을 사용하여 Azure Key Vault를 프로비전합니다.</t>
+          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7644,14 +7653,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>서로 다른 응용 프로그램 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 크기 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7689,14 +7698,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7717,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>공공 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 설정된 소프트 삭제 및 제거 정책을 사용하여 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7741,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7762,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7786,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7807,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 끝점 또는 개인 끝점을 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>공공 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7831,7 +7840,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사할 수 있습니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7869,14 +7878,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7897,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 준수 구성을 적용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 끝점 또는 개인 끝점을 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7921,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7942,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>주체 암호화 기능을 위해 Microsoft에서 관리하는 키로 기본 설정되며 필요한 경우 고객 관리 키를 사용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사할 수 있습니다.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7959,14 +7968,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>지역별 환경당 응용 프로그램당 Azure Key Vault를 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8011,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>주체 암호화 기능을 위해 Microsoft에서 관리하는 키로 기본 설정되며 필요한 경우 고객 관리 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8049,14 +8058,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8072,18 +8081,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책 활용</t>
+          <t>지역별 환경당 응용 프로그램당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8094,14 +8103,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8117,12 +8126,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용을 적용합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8139,14 +8148,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8167,13 +8176,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>Azure 정책 활용</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8191,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8229,14 +8238,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8257,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 하위 수준에서 제외를 사용하여 적절한 가장 높은 수준에서 정책 할당을 관리합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8281,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8302,13 +8311,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8326,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>필요한 경우 하위 수준에서 제외를 사용하여 적절한 가장 높은 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8371,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8392,13 +8401,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+          <t>Azure 정책을 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8416,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8437,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8461,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8482,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 준수 기준 VM 구성을 적용합니다.</t>
+          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8499,14 +8508,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8544,14 +8553,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8567,12 +8576,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 준수 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8589,14 +8598,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8612,12 +8621,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8634,14 +8643,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 클라우드 표준에 대해 Defender를 사용하도록 설정합니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8679,14 +8688,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 방어자를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8724,14 +8733,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
+          <t>모든 구독에 대해 클라우드 표준에 대해 Defender를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8769,14 +8778,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8797,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 방어자를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8814,14 +8823,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8842,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8859,14 +8868,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8887,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8911,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8932,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청 처리 방법 계획</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8949,14 +8958,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8965,30 +8974,90 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>새 Azure 서비스 구현 방법 계획</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Azure 서비스에 대한 서비스 요청 처리 방법 계획</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
@@ -11035,7 +11104,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
+          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀은 워크로드 디자인 세션의 일부로 구독 지원 제한을 인식하고 있습니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 지원 제한을 인식하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>예약 인스턴스를 사용하여 필요한 지역에서 예약된 용량의 우선 순위를 지정합니다. 그러면 특정 지역에서 해당 리소스에 대한 수요가 높은 경우에도 워크로드에 필요한 용량이 생깁니다.</t>
+          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 지역에서 사용 가능한 용량을 보장합니다. Azure 정책을 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -9064,330 +9064,990 @@
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Azure 트래픽 관리자와 Azure 정문 결합하지 마십시오.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door와 함께 종단 간 TLS를 사용합니다. TLS를 사용하여 클라이언트에서 Front Door로, Front Door에서 오리진으로 연결할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>HTTP를 사용하여 Azure Front Door를 사용하여 HTTPS 리디렉션을 수행합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Azure 프런트 도어에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door에서 고객 관리 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 가동 중단 위험을 줄입니다.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door 및 오리진에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Azure 정문 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 응용 프로그램을 보호합니다.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 끝점을 선택합니다. 응용 프로그램의 모든 종속성을 확인하는 상태 끝점을 빌드하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>네트워크 토폴로지 및 연결</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Azure 정문과 함께 HEAD 상태 프로브를 사용합니다. Front Door가 응용 프로그램에 보내는 트래픽을 줄입니다.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>워크로드에 대해 Azure Front Door WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-아파드-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Azure 정문 WAF와 함께 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 감지하고 차단합니다.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-바브 - ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Azure 정문 WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하지 않는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지역적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽을 차단합니다.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지역적으로 필터링할 때 알 수 없음(ZZ) 위치를 지정합니다. IP 주소를 지역적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 않도록 합니다.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>관리 및 모니터링</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>관리 및 모니터링</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>정문</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -11104,7 +11764,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure 랜딩 존 검토</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 브레이크 글래스 계정을 구현합니다.</t>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 비상 액세스 또는 비상 계정에 대해 구현</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>348EF254-C27D-442E-ABBA-C7571559AB91</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>1049D403-A923-4C34-94D0-0018AC6A9E01</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>역할 및 보안 요구 사항에 따라 착륙 영역 내에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 시행합니다.</t>
+          <t>중앙 집중화되고 위임된 책임을 적용하여 역할 및 보안 요구 사항에 따라 랜딩 존 내에 배포된 리소스를 관리합니다.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>E6A83DE5-DE32-4C19-A248-1607D5D1E4E6</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Azure AD PIM(권한 있는 ID 관리)을 적용하여 제로 스탠딩 액세스 및 최소 권한을 설정합니다.</t>
+          <t>Azure AD PIM(권한 있는 ID 관리)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 안 함</t>
+          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. 마이크로소프트 계정 사용 금지</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>12E7F983-F630-4472-8DD6-9C5B5C2622F5</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>그룹만 사용하여 사용 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 애플리케이션 소유자와 같은 주요 역할에 대해 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>F5664B5E-984A-4859-A773-E7D261623A76</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure 정책을 배포하여 적용할 수 있습니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure 정책을 배포하여 이를 적용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Azure AADDS(Active Directory 도메인 서비스)를 사용 중인 경우 이 서비스를 하나의 구독에만 프로젝션할 수 있으므로 주 지역 내에 ADADDS를 배포합니다.</t>
+          <t>AADDS(Azure Active Directory 도메인 서비스)를 사용 중인 경우 이 서비스는 하나의 구독에만 프로젝션될 수 있으므로 주 지역 내에 AAADDS를 배포합니다.</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>1559AB91-53E8-4908-AE28-C84C33B6B780</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>AADDS를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
+          <t>AADD를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다.</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Windows 서버의 AD를 사용 중인 경우 필요한 모든 리소스가 올바른 도메인 컨트롤러에 액세스할 수 있습니까?</t>
+          <t>Windows 서버의 AD가 사용 중인 경우 필요한 모든 리소스가 올바른 도메인 컨트롤러에 액세스할 수 있습니까?</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>AC6A9E01-E6A8-43DE-9DE3-2C1992481607</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 응용 프로그램 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 응용 프로그램(클라우드 또는 온-프레미스에서 호스팅됨)에 대한 안전하고 인증된 액세스 권한을 부여하는 것이 좋습니다.</t>
+          <t>Azure AD 애플리케이션 프록시를 VPN 또는 역방향 프록시 대체로 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>D5D1E4E6-1465-48D3-958F-D77249B82111</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>합리적으로 평평한 관리 그룹 계층 구조를 서너 개 이하의 수준으로 시행하십시오.</t>
+          <t>합리적으로 수평적인 관리 그룹 계층 구조를 3-4개 이하로 적용합니다.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>5C2622F5-4B69-4bad-93AA-D5E8C68E1D76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>샌드박스 관리 그룹을 적용하여 사용자가 Azure를 즉시 실험할 수 있도록 합니다.</t>
+          <t>사용자가 Azure를 즉시 실험할 수 있도록 샌드박스 관리 그룹 적용</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>61623A76-5A91-47E1-B348-EF254C27D42E</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 관리 그룹에 전용 연결 구독을 적용하여 Azure Virtual WAN 허브, 개인 DNS(도메인 이름 시스템), ExpressRoute 회로 및 기타 네트워킹 리소스를 호스팅합니다.</t>
+          <t>플랫폼 관리 그룹에서 전용 연결 구독을 적용하여 Azure 가상 WAN 허브, 프라이빗 DNS(도메인 이름 시스템), Express 경로 회로 및 기타 네트워킹 리소스를 호스트합니다.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 아래에 구독이 배치되지 않도록 적용</t>
+          <t>루트 관리 그룹에 구독이 배치되지 않도록 적용</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>관리 그룹 계층 구조 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 운영할 수 있도록 적용합니다.</t>
+          <t>관리 그룹 계층 설정에서 Azure RBAC 권한 부여를 사용하도록 설정하여 권한 있는 사용자만 테넌트에서 관리 그룹을 작동할 수 있도록 적용</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2174,7 +2174,7 @@
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>74d00018-AC6A-49E0-8E6A-83DE5DE32C19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2219,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>92481607-D5D1-4E4E-9146-58D3558FD772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토에 액세스하고, 예산 검토하고, 정책 준수를 준수하고, 필요한 경우 수정하도록 프로세스를 시행합니다.</t>
+          <t>리소스 소유자가 자신의 역할과 책임을 인식하고, 검토, 예산 검토, 정책 준수에 액세스하고, 필요한 경우 수정할 수 있도록 프로세스를 적용합니다.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 지원 제한을 인식하고 있는지 확인합니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 지원 제한 사항을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2310,7 +2310,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>2DD69C5B-5C26-422F-94B6-9BAD33AAD5E8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 지역에서 사용 가능한 용량을 보장합니다. Azure 정책을 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
+          <t>적절한 경우 예약 인스턴스를 사용하여 비용을 최적화하고 대상 리전에서 사용 가능한 용량을 보장합니다. Azure 정책을 통해 구매한 예약 인스턴스 VM SKU의 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2360,7 +2360,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>C68E1D76-6673-413B-9F56-64B5E984A859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준을 모니터링합니다.</t>
+          <t>대시보드, 통합 문서 또는 수동 프로세스를 적용하여 사용된 용량 수준 모니터링</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2410,7 +2410,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>C773E7D2-6162-43A7-95A9-17E1F348EF25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2460,7 +2460,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>4C27D42E-8BBA-4C75-9155-9AB9153E8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>비용 관리를 위한 프로세스 적용</t>
+          <t>비용 관리 프로세스 적용</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2510,7 +2510,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>AE28C84C-33B6-4B78-88B9-FE5C41049D40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Windows Server의 AD인 경우 플랫폼 관리 그룹에 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
+          <t>AD가 Windows Server에 있는 경우 플랫폼 관리 그룹에서 전용 ID 구독을 설정하여 Windows Server Active Directory 도메인 컨트롤러를 호스트합니다.</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2560,7 +2560,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>3A923C34-74D0-4001-AAC6-A9E01E6A83DE</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>태그가 청구 및 비용 관리에 사용되는지 확인</t>
+          <t>청구 및 비용 관리에 태그가 사용되는지 확인</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 없는지 확인</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2660,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>558FD772-49B8-4211-82DF-27EE412E7F98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>개인 인터넷(RFC 1918)에 대한 주소 할당의 IP 주소를 사용해야 합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록하고 불필요하게 큰 가상 네트워크를 만들지 마십시오 (예 : /16). </t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2760,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>33AAD5E8-C68E-41D7-9667-313B4F5664B5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>특히 조직이 소유하지 않은 경우 VNET에 대한 CIDR 주소 범위(CIDR 블록)가 없는지 확인합니다.</t>
+          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>E984A859-C773-4E7D-8616-23A765A917E1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2860,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>F348EF25-4C27-4D42-B8BB-AC7571559AB9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure의 이름 확인이 필요한 환경의 경우 해결을 위해 Azure 개인 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 컴퓨터)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 이러한 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 필요로 하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -3006,7 +3006,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>1E6A83DE-5DE3-42C1-A924-81607D5D1E4E</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>IP 계획</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 컴퓨터에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3056,7 +3056,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>614658D3-558F-4D77-849B-821112DF27EE</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 전체에서 여러 방문 영역을 함께 연결합니다.</t>
+          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 세그먼트화합니다.</t>
+          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3197,7 +3197,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>4F5664B5-E984-4A85-AC77-3E7D261623A7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
+          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3247,7 +3247,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>65A917E1-F348-4EF2-94C2-7D42E8BBAC75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 Virtual WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 Virtual WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
+          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3297,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>71559AB9-153E-4890-AAE2-8C84C33B6B78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>지점 및 사이트 간 VPN을 통해 사용자를 Virtual WAN 허브에 연결합니다.</t>
+          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>'Azure의 트래픽은 Azure에 유지됨' 원칙을 준수하여 Microsoft 백본 네트워크를 통해 Azure의 리소스 간 통신이 이루어지도록 합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3393,7 +3393,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>8AC6A9E0-1E6A-483D-B5DE-32C199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN에 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
+          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어져 있는지 확인합니다.</t>
+          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3533,7 +3533,7 @@
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>B5C2622F-54B6-49BA-B33A-AD5E8C68E1D7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3578,7 +3578,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>6667313B-4F56-464B-9E98-4A859C773E7D</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN용 Azure Monitor 인사이트를 사용하여 가상 WAN의 종단 간 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3623,7 +3623,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>261623A7-65A9-417E-8F34-8EF254C27D42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 디자인을 고려하십시오: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 여러 Azure 지역에 걸쳐 있으며 지역 간 방문 영역에 대해 가상 네트워크 간의 전이 연결이 필요하지 않습니다. Azure 지역 간에 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 ExpressRoute 연결 간의 전이 연결이 필요 없는 네트워크 아키텍처; 주요 하이브리드 연결 방법은 ExpressRoute이며 VPN 연결 수는 VPN 게이트웨이 당 30 개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
+          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3673,7 +3673,7 @@
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>E8BBAC75-7155-49AB-A153-E8908AE28C84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3689,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure 방화벽을 비롯한 공유 서비스 또는 중앙 허브 가상 네트워크의 파트너 NVA가 있는지 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3718,7 +3718,7 @@
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>7DD61623-A364-4A90-9ECA-E48EBD54CD7D</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때는 파트너 공급업체의 지침을 따릅니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3763,7 +3763,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>E2E8ABAC-3571-4559-AB91-53E89F89DC7B</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3779,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마십시오. 대신 해당 방문 영역에 앱과 함께 배포합니다.</t>
+          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3809,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>44CE3B1A-2808-4B9E-A1BF-1038DF03A822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
+          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3855,7 +3855,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>CE463DBB-BC8A-4C2A-AEBC-92A43DA1DAE2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역 전체에 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 소수의 방문 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 착륙 영역 가상 네트워크를 연결합니다. </t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3905,7 +3905,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>CC881471-607C-41CC-A0E6-14658DD558F9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 간 모든 방문 영역 간의 전송 연결이 필요한 경우 이중 회로와 함께 ExpressRoute를 사용하여 Azure 지역 전체의 착륙 영역 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
+          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 종단 간 상태를 모니터링합니다.</t>
+          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -4005,7 +4005,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>4722D929-C1B1-4CD6-81F5-4B29BADE39AD</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>허브 및 스포크</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한과 ExpressRoute를 통해 알릴 수 있는 최대 접두사 수를 고려합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4051,7 +4051,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>0E7C28EC-9366-4572-83B0-F4664B1D944A</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
+          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4101,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>359C373E-7DD6-4162-9A36-4A907ECAE48E</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4151,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>F29812B2-363C-4EFE-879B-599DE0D5973C</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4201,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>D4CD21B0-8813-47F5-B6C4-CFD3E504547C</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>10Gbps 이상의 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4301,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>72E52E36-11CC-458B-9A4B-1511E43A58A9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4351,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>C2299C4D-7B57-4D0C-9555-62F2B3E4563A</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 지점 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute 글로벌 리치를 사용하여 ExpressRoute를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
+          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4451,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489A</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 것과 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>기본 제공 Azure Monitor 메트릭을 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4551,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>B30E38C3-F298-412B-8363-CEFE179B599D</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4601,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>5BF68DC9-325E-4873-BF88-F8214EF2E5D2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>단일 피어링 위치에서 ExpressRoute 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
+          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4651,7 +4651,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>E0D5973C-D4CD-421B-8881-37F5E6C4CFD3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,12 +4667,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다양한 옵션을 고려하십시오.</t>
+          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4701,7 +4701,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>E504547C-2447-4EC6-9138-A7200F1CE16E</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>가상 네트워크에 주입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리부 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인하십시오.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4751,7 +4751,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>D301D6E8-72E5-42E3-911C-C58B5A4B1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>공유 Azure PaaS 서비스에 대해 사용 가능한 경우 개인 링크를 사용합니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4801,7 +4801,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>E43A58A9-C229-49C4-B7B5-7D0C655562F2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,12 +4817,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute 개인 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법은 공용 인터넷을 통한 전송을 방지합니다.</t>
+          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4851,7 +4851,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>B3E4563A-4D87-4397-98B6-62D6D15F512A</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,12 +4867,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>개인 링크를 사용할 수 없는 경우 가상 네트워크 서비스 끝점 사용</t>
+          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4901,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>65498F6D-FE23-47DE-843B-16C31D7AA9B6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 끝점을 사용하도록 설정하지 마세요.</t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4951,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>4704489A-8042-4D88-B79D-17B73B22A5A6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,12 +4967,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>NVA 필터링을 사용하지 않는 한 데이터 유출 문제가 있는 경우 가상 네트워크 서비스 끝점을 사용하지 마십시오.</t>
+          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5001,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>7E7A8ed4-B30E-438C-9F29-812B2363CEFE</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>파아스</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S 인바운드 연결이 아닌 연결 및 동부/서부 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
+          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5101,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>E6C4CFD3-E504-4547-A244-7EC66138A720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN과 함께 방화벽 관리자를 사용하여 가상 WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 가상 WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
+          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5151,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>0F1CE16E-D301-4D6E-A72E-52E3611CC58B</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경 전반의 보안 상태를 관리하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 세분화된 정책이 특정 지역의 요구 사항을 충족하도록 허용합니다.</t>
+          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5201,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>5A4B1511-E43A-458A-AC22-99C4D7B57D0C</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5251,7 +5251,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>655562F2-B3E4-4563-A4D8-739748B662D6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5301,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>D15F512A-6549-48F6-BFE2-37DE143B16C3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 방문 영역에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
+          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 응용 프로그램 게이트웨이를 잠궈 Azure 프런트 도어에서만 트래픽을 받습니다.</t>
+          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 파트너 NVA를 착륙 영역 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5451,7 +5451,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>2363CEFE-179B-4599-BE0D-5973CD4CD21B</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 보호 표준 보호 계획을 사용하여 가상 네트워크 내에서 호스팅되는 모든 공용 끝점을 보호할 수 있습니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5501,7 +5501,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>088137F5-E6C4-4CFD-9E50-4547C2447EC6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>내부 지향(회사) 및 외부 연결 앱(온라인) 모두에 대해 방문 영역 내에서 앱 배달을 수행합니다.</t>
+          <t>내부 연결(회사) 및 외부 연결 앱(온라인) 모두에 대해 랜딩 존 내에서 앱 제공을 수행합니다.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5551,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>6138A720-0F1C-4E16-BD30-1D6E872E52E3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 전달하려면 애플리케이션 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>HTTP/S 앱을 안전하게 제공하려면 응용 프로그램 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5601,7 +5601,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>611CC58B-5A4B-4151-8E43-A58A9C2299C4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,12 +5617,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱의 보안을 위해 애플리케이션 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
+          <t>HTTP/S 앱의 보안을 위해 응용 프로그램 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>D7B57D0C-6555-462F-8B3E-4563A4D87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5667,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>착륙 영역 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 보안 중인 앱과 함께 배포합니다.</t>
+          <t>랜딩 존 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 배포하고 보안 중인 앱을 사용합니다.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>방문 구역의 모든 공용 IP 주소에 대해 DDoS 표준 보호 계획을 사용합니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5767,12 +5767,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure Front Door를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
+          <t>WAF 정책과 함께 Azure 전면 도어를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호합니다.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5801,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>E79D17B7-3B22-4A5A-97E7-A8ED4B30E38C</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,12 +5817,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. 응용 프로그램 게이트웨이를 잠궈 정문에서만 트래픽을 수신합니다.</t>
+          <t>프런트 도어 및 애플리케이션 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 프런트 도어에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5851,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>3F29812B-2363-4CEF-B179-B599DE0D5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
+          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 전역 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>CD4CD21B-0881-437F-9E6C-4CFD3E504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>사용자가 내부 응용 프로그램에 대한 액세스만 필요한 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었습니까?</t>
+          <t>사용자가 내부 응용 프로그램에만 액세스해야 하는 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었나요?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 영역 소유자에게 위임합니다. </t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -6001,7 +6001,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>C2447EC6-6138-4A72-80F1-CE16ED301D6E</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>앱 배달</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 응용 프로그램 프록시를 사용하여 원격 사용자에게 내부 응용 프로그램에 대한 안전하고 인증된 액세스 권한을 부여하는 것이 좋습니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>01CA7CF1-5754-442D-밥-8BA6772E5C30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하면 서브넷 간 트래픽뿐만 아니라 플랫폼 전체의 동/서 트래픽(랜딩 영역 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>응용 프로그램 팀은 서브넷 수준 NSG에서 응용 프로그램 보안 그룹을 사용하여 방문 영역 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6151,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>9C2299C4-D7B5-47D0-A655-562F2B3E4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 영역 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 마십시오.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 공급하여 내부 및 외부 트래픽 흐름에 대한 통찰력을 얻을 수 있습니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 랜딩 영역 간의 연결을 선택적으로 허용합니다.</t>
+          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6301,7 +6301,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>A8042D88-E79D-417B-93B2-2A5A67E7A8ED</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN 토폴로지의 경우 조직에서 방문 영역 간에 흐르는 트래픽에 대해 필터링 및 로깅 기능이 필요한 경우 Azure 방화벽을 통해 방문 영역 간에 트래픽을 라우팅합니다.</t>
+          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 두 수준에서 트래픽을 암호화하기 위해 MACsec을 구성합니다. 다이어그램은 이 암호화를 흐름에 보여 줍니다.</t>
+          <t>Express 경로 다이렉트를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6396,7 +6396,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>DE0D5973-CD4C-4D21-A088-137F5E6C4CFD</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6446,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>3E504547-C244-47EC-9613-8A7200F1CE16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: ExpressRoute Direct를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: Express 경로 다이렉트를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6496,7 +6496,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>ED301D6E-872E-452E-9611-CC58B5A4B151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>제한된 캡처 창에도 불구하고 네트워크 감시자 패킷을 사용하여 캡처합니다.</t>
+          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6546,7 +6546,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1E43A58A-9C22-499C-9D7B-57D0C655562F</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 수준을 제공하는지 여부를 평가합니다.</t>
+          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
+          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6683,7 +6683,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>64704489-A804-42D8-AE79-D17B73B22A5A</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책이 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
+          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>착륙 구역이 문서화되어 있습니까?</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6775,7 +6775,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>E179B599-DE0D-4597-9CD4-CD21B088137F</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 한 번 쓰기, 많은 읽기 정책과 함께 변경할 수 없는 저장소를 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure 저장소로 로그를 내보냅니다. 변경 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6825,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>5E6C4CFD-3E50-4454-9C24-47EC66138A72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure 정책을 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고를 위해 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6875,7 +6875,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>00F1CE16-ED30-41D6-B872-E52E3611CC58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6925,7 +6925,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>E7D7E484-3276-4D8B-BC05-5BCF619E8A13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6975,7 +6975,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>F9887952-5D62-4688-9D70-BA6C97BE9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7025,7 +7025,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>90483845-C986-4CB2-A131-56A12476E49F</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스의 실수로 삭제를 방지합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일을 마련합니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7120,7 +7120,7 @@
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>A6E55D7D-8A2A-4DB1-87D6-326AF625CA44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>E5695F22-23AC-4E8C-A123-08CA5017F154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 처리할 수 있도록 합니다.</t>
+          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 해결할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7210,7 +7210,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>D5F345BF-97AB-41A7-819C-6104BAA7D48C</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 태어난 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7255,7 +7255,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>E3AB3693-829E-47E3-8618-3687A0477A20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 응용 프로그램 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 사용하여 로그 액세스를 제어합니다.</t>
+          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>9945BDA4-3334-4F24-A116-34182BA52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure 모니터 로그를 사용하여 인사이트 및 보고를 수행합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure 모니터 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7345,7 +7345,7 @@
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>6944008B-E7D7-4E48-9327-6D8BDC055BCF</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 저장소에 대해 방문 영역 내에서 공유 저장소 계정을 사용합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>작업 경고 생성을 위해 Azure Monitor 경고를 사용합니다.</t>
+          <t>Azure 모니터 경고를 사용하여 작업 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7435,7 +7435,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>97be9951-9048-4384-9C98-6CB2913156A1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 여러 지역에서 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>2476E49F-541A-4CDC-B979-377BCDB3751A</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>네이티브 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>기본 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7525,7 +7525,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>B2AB13AD-A6E5-45D7-B8A2-ADB117D6326A</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7570,7 +7570,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>F625CA44-E569-45F2-823A-CE8CB12308CA</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인합니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7615,7 +7615,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>859C3900-4514-41EB-B010-475D695ABD74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7660,7 +7660,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>5017F154-E3AB-4369-9829-E7E316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>서로 다른 응용 프로그램 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 크기 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7705,7 +7705,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>A0477A20-9945-4BDA-9333-4F2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 설정된 소프트 삭제 및 제거 정책을 사용하여 Azure Key Vault를 프로비전합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7750,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>2BA52752-6944-4008-AE7D-7E4843276D8B</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>공공 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,7 +7885,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>913156A1-2476-4E49-B541-ACDCE979377B</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 끝점 또는 개인 끝점을 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7930,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>CDB3751A-B2AB-413A-BA6E-55D7D8A2ADB1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사할 수 있습니다.</t>
+          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,7 +7975,7 @@
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>17D6326A-F625-4CA4-9E56-95F2223ACE8C</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 준수 구성을 적용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8020,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>B12308CA-5017-4F15-9E3A-B3693829E7E3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>주체 암호화 기능을 위해 Microsoft에서 관리하는 키로 기본 설정되며 필요한 경우 고객 관리 키를 사용합니다.</t>
+          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8065,7 +8065,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>16183687-A047-47A2-8994-5BDA43334F24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>지역별 환경당 응용 프로그램당 Azure Key Vault를 사용합니다.</t>
+          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8110,7 +8110,7 @@
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>91163418-2BA5-4275-8694-4008BE7D7E48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍 및 재해 복구 지역을 선택합니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8200,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>5C986CB2-9131-456A-8247-6E49F541ACDC</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용을 적용합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,7 +8245,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>E979377B-CDB3-4751-AB2A-B13ADA6E55D7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>D8A2ADB1-17D6-4326-AF62-5CA44E5695F2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 하위 수준에서 제외를 사용하여 적절한 가장 높은 수준에서 정책 할당을 관리합니다.</t>
+          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
+          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8470,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>BE7D7E48-4327-46D8-ADC0-55BCF619E8A1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리되지 않도록 합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,7 +8560,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>19048384-5C98-46CB-8913-156A12476E49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 준수 기준 VM 구성을 적용합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8605,7 +8605,7 @@
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>F541ACDC-E979-4377-ACDB-3751AB2AB13A</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8650,7 +8650,7 @@
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>DA6E55D7-D8A2-4ADB-817D-6326AF625CA4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8695,7 +8695,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4E5695F2-223A-4CE8-AB12-308CA5017F15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure Monitor 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 보관을 위해 Azure Storage로 내보냅니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 클라우드 표준에 대해 Defender를 사용하도록 설정합니다.</t>
+          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8785,7 +8785,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>09945BDA-4333-44F2-9911-634182BA5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 방어자를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8830,7 +8830,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>15833EE7-AD6C-46D3-9331-65C7ACBE44AB</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>E5F8D79F-2E87-4768-924C-516775C6EA95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>프로덕션에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8920,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>B86AD884-08E3-4727-94B8-75BA18F20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>01365D38-E43F-49CC-AD86-8266abca264F</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9010,7 +9010,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>9A19BF39-C95D-444C-9C89-19CA1F6D5215</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청 처리 방법 계획</t>
+          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자와 Azure 정문 결합하지 마십시오.</t>
+          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9100,7 +9100,7 @@
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>062D5839-4D36-402F-BFA4-02811EB936E9</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door와 함께 종단 간 TLS를 사용합니다. TLS를 사용하여 클라이언트에서 Front Door로, Front Door에서 오리진으로 연결할 수 있습니다.</t>
+          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9145,7 +9145,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>2E30ABAB-5478-417C-81BF-BF1AD4ED1ED4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>HTTP를 사용하여 Azure Front Door를 사용하여 HTTPS 리디렉션을 수행합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9190,7 +9190,7 @@
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>10AA45AF-166F-44C4-9F36-B6D592DAC2CA</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,7 +9235,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>AF95C92D-D723-4F4A-98D7-8722324EFD4D</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 고객 관리 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 가동 중단 위험을 줄입니다.</t>
+          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9280,7 +9280,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>F00A69DE-7076-4734-A734-6E4552CAD9E1</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 오리진에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9325,7 +9325,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>5EFEB96A-003F-4B18-8FCD-B4D84459C2B2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 응용 프로그램을 보호합니다.</t>
+          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 끝점을 선택합니다. 응용 프로그램의 모든 종속성을 확인하는 상태 끝점을 빌드하는 것이 좋습니다.</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문과 함께 HEAD 상태 프로브를 사용합니다. Front Door가 응용 프로그램에 보내는 트래픽을 줄입니다.</t>
+          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,7 +9505,7 @@
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>A13F72F3-8F5C-4864-95E5-75BF37FBEBB1</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>워크로드에 대해 Azure Front Door WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
+          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,7 +9550,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-아파드-624ab70f7bd6</t>
+          <t>2902D8CC-1B0C-4495-AFAD-624AB70F7BD6</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문 WAF와 함께 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 보장합니다.</t>
+          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,7 +9595,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>17BA124B-127D-42B6-9322-388D5B2BBCFC</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 받을 수 있습니다.</t>
+          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 감지하고 차단합니다.</t>
+          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,7 +9685,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>49A98F2B-EC22-4A87-9415-6A10B00D6555</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9775,7 +9775,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-바브 - ac7570ede79a</t>
+          <t>D7DCDCB9-0D99-44B9-BAAB-AC7570EDE79A</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문 WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,7 +9820,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>B9620385-1CDE-418F-914B-A84A06982FFC</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽을 차단하지 않는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청으로부터 보호합니다. </t>
+          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,7 +9865,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>6DC36C52-0124-4FFE-9EAF-23EC1282DEDB</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지역적으로 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽을 차단합니다.</t>
+          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,7 +9910,7 @@
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>388A3D0E-0A43-4367-90B2-3DD2AEeCe5EE</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지역적으로 필터링할 때 알 수 없음(ZZ) 위치를 지정합니다. IP 주소를 지역적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 않도록 합니다.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure Front Door WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>진단 설정을 추가하여 Azure 프런트 도어 WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,7 +10000,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>89CC5E11-AA4D-4C3B-893D-FEB99215266A</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10045,7 +10045,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7F408960-C626-44CB-A018-347C8D790CDF</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -11912,7 +11918,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>이 검사와 연관된 작업 항목이 있습니다.</t>
+          <t>이 검사와 연결된 작업 항목이 있습니다.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11949,7 +11955,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>이 검사가 확인되었으며 연관된 추가 작업 항목이 없습니다.</t>
+          <t>이 검사가 확인되었으며 연결된 추가 작업 항목이 없습니다.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11981,7 +11987,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항은 이해되었지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에서 필요하지 않음</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -12013,7 +12019,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>현재 설계에는 적용되지 않음</t>
+          <t>현재 디자인에는 적용되지 않음</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure-Azure 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure 간 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 지원 제한 사항을 알고 있는지 확인합니다.</t>
+          <t>모든 구독 소유자와 IT 핵심 팀이 워크로드 디자인 세션의 일부로 구독 리소스 제한 사항을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure 랜딩 존 검토</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348EF254-C27D-442E-ABBA-C7571559AB91</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>1049D403-A923-4C34-94D0-0018AC6A9E01</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>E6A83DE5-DE32-4C19-A248-1607D5D1E4E6</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12E7F983-F630-4472-8DD6-9C5B5C2622F5</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3rd-45e8-a68e-1d76667313b4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>F5664B5E-984A-4859-A773-E7D261623A76</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>1559AB91-53E8-4908-AE28-C84C33B6B780</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>AC6A9E01-E6A8-43DE-9DE3-2C1992481607</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>D5D1E4E6-1465-48D3-958F-D77249B82111</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5C2622F5-4B69-4bad-93AA-D5E8C68E1D76</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>61623A76-5A91-47E1-B348-EF254C27D42E</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2174,7 +2174,7 @@
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>74d00018-AC6A-49E0-8E6A-83DE5DE32C19</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2219,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-D5D1-4E4E-9146-58D3558FD772</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2310,7 +2310,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2DD69C5B-5C26-422F-94B6-9BAD33AAD5E8</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2360,7 +2360,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>C68E1D76-6673-413B-9F56-64B5E984A859</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2410,7 +2410,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>C773E7D2-6162-43A7-95A9-17E1F348EF25</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2460,7 +2460,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>4C27D42E-8BBA-4C75-9155-9AB9153E8908</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2510,7 +2510,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>AE28C84C-33B6-4B78-88B9-FE5C41049D40</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2560,7 +2560,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3A923C34-74D0-4001-AAC6-A9E01E6A83DE</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2660,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558FD772-49B8-4211-82DF-27EE412E7F98</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2760,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33AAD5E8-C68E-41D7-9667-313B4F5664B5</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>E984A859-C773-4E7D-8616-23A765A917E1</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2860,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>F348EF25-4C27-4D42-B8BB-AC7571559AB9</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -3006,7 +3006,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1E6A83DE-5DE3-42C1-A924-81607D5D1E4E</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3056,7 +3056,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658D3-558F-4D77-849B-821112DF27EE</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3197,7 +3197,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4F5664B5-E984-4A85-AC77-3E7D261623A7</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3247,7 +3247,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65A917E1-F348-4EF2-94C2-7D42E8BBAC75</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3297,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559AB9-153E-4890-AAE2-8C84C33B6B78</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3393,7 +3393,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8AC6A9E0-1E6A-483D-B5DE-32C199248160</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3533,7 +3533,7 @@
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>B5C2622F-54B6-49BA-B33A-AD5E8C68E1D7</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3578,7 +3578,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313B-4F56-464B-9E98-4A859C773E7D</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3623,7 +3623,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623A7-65A9-417E-8F34-8EF254C27D42</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3673,7 +3673,7 @@
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>E8BBAC75-7155-49AB-A153-E8908AE28C84</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3718,7 +3718,7 @@
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7DD61623-A364-4A90-9ECA-E48EBD54CD7D</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3763,7 +3763,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>E2E8ABAC-3571-4559-AB91-53E89F89DC7B</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44CE3B1A-2808-4B9E-A1BF-1038DF03A822</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3855,7 +3855,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>CE463DBB-BC8A-4C2A-AEBC-92A43DA1DAE2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3905,7 +3905,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>CC881471-607C-41CC-A0E6-14658DD558F9</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -4005,7 +4005,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722D929-C1B1-4CD6-81F5-4B29BADE39AD</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4051,7 +4051,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0E7C28EC-9366-4572-83B0-F4664B1D944A</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4101,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359C373E-7DD6-4162-9A36-4A907ECAE48E</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4151,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>F29812B2-363C-4EFE-879B-599DE0D5973C</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4201,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>D4CD21B0-8813-47F5-B6C4-CFD3E504547C</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4301,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72E52E36-11CC-458B-9A4B-1511E43A58A9</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4351,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>C2299C4D-7B57-4D0C-9555-62F2B3E4563A</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4451,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489A</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4551,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>B30E38C3-F298-412B-8363-CEFE179B599D</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4601,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5BF68DC9-325E-4873-BF88-F8214EF2E5D2</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4651,7 +4651,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>E0D5973C-D4CD-421B-8881-37F5E6C4CFD3</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4701,7 +4701,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>E504547C-2447-4EC6-9138-A7200F1CE16E</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4751,7 +4751,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>D301D6E8-72E5-42E3-911C-C58B5A4B1511</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4801,7 +4801,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>E43A58A9-C229-49C4-B7B5-7D0C655562F2</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4851,7 +4851,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>B3E4563A-4D87-4397-98B6-62D6D15F512A</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4901,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498F6D-FE23-47DE-843B-16C31D7AA9B6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4951,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489A-8042-4D88-B79D-17B73B22A5A6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5001,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7E7A8ed4-B30E-438C-9F29-812B2363CEFE</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5101,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>E6C4CFD3-E504-4547-A244-7EC66138A720</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5151,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0F1CE16E-D301-4D6E-A72E-52E3611CC58B</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5201,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5A4B1511-E43A-458A-AC22-99C4D7B57D0C</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5251,7 +5251,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562F2-B3E4-4563-A4D8-739748B662D6</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5301,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>D15F512A-6549-48F6-BFE2-37DE143B16C3</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5451,7 +5451,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363CEFE-179B-4599-BE0D-5973CD4CD21B</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5501,7 +5501,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137F5-E6C4-4CFD-9E50-4547C2447EC6</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5551,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138A720-0F1C-4E16-BD30-1D6E872E52E3</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5601,7 +5601,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611CC58B-5A4B-4151-8E43-A58A9C2299C4</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>D7B57D0C-6555-462F-8B3E-4563A4D87397</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5801,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>E79D17B7-3B22-4A5A-97E7-A8ED4B30E38C</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5851,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3F29812B-2363-4CEF-B179-B599DE0D5973</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>CD4CD21B-0881-437F-9E6C-4CFD3E504547</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -6001,7 +6001,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>C2447EC6-6138-4A72-80F1-CE16ED301D6E</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01CA7CF1-5754-442D-밥-8BA6772E5C30</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6151,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9C2299C4-D7B5-47D0-A655-562F2B3E4563</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6301,7 +6301,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>A8042D88-E79D-417B-93B2-2A5A67E7A8ED</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6396,7 +6396,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>DE0D5973-CD4C-4D21-A088-137F5E6C4CFD</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6446,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3E504547-C244-47EC-9613-8A7200F1CE16</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6496,7 +6496,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ED301D6E-872E-452E-9611-CC58B5A4B151</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6546,7 +6546,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1E43A58A-9C22-499C-9D7B-57D0C655562F</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6683,7 +6683,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-A804-42D8-AE79-D17B73B22A5A</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6775,7 +6775,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>E179B599-DE0D-4597-9CD4-CD21B088137F</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6825,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5E6C4CFD-3E50-4454-9C24-47EC66138A72</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6875,7 +6875,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00F1CE16-ED30-41D6-B872-E52E3611CC58</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6925,7 +6925,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>E7D7E484-3276-4D8B-BC05-5BCF619E8A13</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6975,7 +6975,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>F9887952-5D62-4688-9D70-BA6C97BE9951</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7025,7 +7025,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-C986-4CB2-A131-56A12476E49F</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7120,7 +7120,7 @@
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>A6E55D7D-8A2A-4DB1-87D6-326AF625CA44</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>E5695F22-23AC-4E8C-A123-08CA5017F154</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7210,7 +7210,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>D5F345BF-97AB-41A7-819C-6104BAA7D48C</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7255,7 +7255,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>E3AB3693-829E-47E3-8618-3687A0477A20</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945BDA4-3334-4F24-A116-34182BA52752</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7345,7 +7345,7 @@
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008B-E7D7-4E48-9327-6D8BDC055BCF</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7435,7 +7435,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9C98-6CB2913156A1</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476E49F-541A-4CDC-B979-377BCDB3751A</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7525,7 +7525,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>B2AB13AD-A6E5-45D7-B8A2-ADB117D6326A</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7570,7 +7570,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>F625CA44-E569-45F2-823A-CE8CB12308CA</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7615,7 +7615,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859C3900-4514-41EB-B010-475D695ABD74</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7660,7 +7660,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017F154-E3AB-4369-9829-E7E316183687</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7705,7 +7705,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>A0477A20-9945-4BDA-9333-4F2491163418</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7750,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2BA52752-6944-4008-AE7D-7E4843276D8B</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7885,7 +7885,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156A1-2476-4E49-B541-ACDCE979377B</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7930,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>CDB3751A-B2AB-413A-BA6E-55D7D8A2ADB1</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7975,7 +7975,7 @@
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17D6326A-F625-4CA4-9E56-95F2223ACE8C</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8020,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>B12308CA-5017-4F15-9E3A-B3693829E7E3</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8065,7 +8065,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-A047-47A2-8994-5BDA43334F24</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8110,7 +8110,7 @@
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2BA5-4275-8694-4008BE7D7E48</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8200,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5C986CB2-9131-456A-8247-6E49F541ACDC</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8245,7 +8245,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>E979377B-CDB3-4751-AB2A-B13ADA6E55D7</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>D8A2ADB1-17D6-4326-AF62-5CA44E5695F2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8470,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>BE7D7E48-4327-46D8-ADC0-55BCF619E8A1</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8560,7 +8560,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5C98-46CB-8913-156A12476E49</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8605,7 +8605,7 @@
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>F541ACDC-E979-4377-ACDB-3751AB2AB13A</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8650,7 +8650,7 @@
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>DA6E55D7-D8A2-4ADB-817D-6326AF625CA4</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8695,7 +8695,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4E5695F2-223A-4CE8-AB12-308CA5017F15</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8785,7 +8785,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945BDA-4333-44F2-9911-634182BA5275</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8830,7 +8830,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833EE7-AD6C-46D3-9331-65C7ACBE44AB</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>E5F8D79F-2E87-4768-924C-516775C6EA95</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8920,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>B86AD884-08E3-4727-94B8-75BA18F20459</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365D38-E43F-49CC-AD86-8266abca264F</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9010,7 +9010,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9A19BF39-C95D-444C-9C89-19CA1F6D5215</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9100,7 +9100,7 @@
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062D5839-4D36-402F-BFA4-02811EB936E9</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9145,7 +9145,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2E30ABAB-5478-417C-81BF-BF1AD4ED1ED4</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9190,7 +9190,7 @@
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10AA45AF-166F-44C4-9F36-B6D592DAC2CA</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9235,7 +9235,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>AF95C92D-D723-4F4A-98D7-8722324EFD4D</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9280,7 +9280,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>F00A69DE-7076-4734-A734-6E4552CAD9E1</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9325,7 +9325,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5EFEB96A-003F-4B18-8FCD-B4D84459C2B2</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9505,7 +9505,7 @@
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>A13F72F3-8F5C-4864-95E5-75BF37FBEBB1</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9550,7 +9550,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902D8CC-1B0C-4495-AFAD-624AB70F7BD6</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9595,7 +9595,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17BA124B-127D-42B6-9322-388D5B2BBCFC</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9685,7 +9685,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49A98F2B-EC22-4A87-9415-6A10B00D6555</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9775,7 +9775,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>D7DCDCB9-0D99-44B9-BAAB-AC7570EDE79A</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9820,7 +9820,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>B9620385-1CDE-418F-914B-A84A06982FFC</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9865,7 +9865,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6DC36C52-0124-4FFE-9EAF-23EC1282DEDB</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9910,7 +9910,7 @@
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388A3D0E-0A43-4367-90B2-3DD2AEeCe5EE</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -10000,7 +10000,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89CC5E11-AA4D-4C3B-893D-FEB99215266A</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10045,7 +10045,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7F408960-C626-44CB-A018-347C8D790CDF</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -12053,7 +12065,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>응용 프로그램 배포</t>
+          <t>Application Deployment</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>중앙 집중화되고 위임된 책임을 적용하여 역할 및 보안 요구 사항에 따라 랜딩 존 내에 배포된 리소스를 관리합니다.</t>
+          <t>역할 및 보안 요구 사항에 따라 랜딩 존 내부에 배포된 리소스를 관리하기 위해 중앙 집중화되고 위임된 책임을 적용합니다.</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -2621,23 +2621,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
+          <t>진단 설정을 추가하여 Azure 프런트 도어 WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,19 +2648,15 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="n"/>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2671,17 +2667,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
+          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2698,19 +2694,15 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="n"/>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2713,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2748,19 +2740,19 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2771,17 +2763,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
+          <t>랜딩 존이 문서화되어 있습니까?</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2796,21 +2788,13 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2821,17 +2805,17 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure 저장소로 로그를 내보냅니다. 변경 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2848,19 +2832,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2871,17 +2855,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고를 위해 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2898,19 +2882,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2921,17 +2905,17 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
+          <t>Azure 정책을 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,19 +2932,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2971,17 +2955,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t xml:space="preserve">Azure 자동화의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2998,15 +2982,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3017,17 +3005,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>네트워크 감시자를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3044,19 +3032,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3067,17 +3055,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
+          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3094,19 +3082,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3117,23 +3105,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3144,14 +3132,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,17 +3150,17 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
+          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3189,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3197,7 +3185,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,17 +3196,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
+          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 해결할 수 있도록 합니다.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3235,19 +3223,15 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="n"/>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3258,17 +3242,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
+          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3285,19 +3269,15 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="n"/>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3308,17 +3288,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
+          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3335,19 +3315,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3358,17 +3333,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
+          <t>인사이트 및 보고를 위해 Azure 모니터 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3385,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3393,7 +3368,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3404,17 +3379,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
+          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3431,19 +3406,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3454,17 +3424,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
+          <t>Azure 모니터 경고를 사용하여 작업 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3481,14 +3451,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3499,17 +3469,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
+          <t>Azure 간 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3526,14 +3496,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3544,17 +3514,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
+          <t>기본 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3571,14 +3541,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3589,17 +3559,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3616,14 +3586,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3634,17 +3604,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>모니터링</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
+          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3661,19 +3631,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3654,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>내부 연결(회사) 및 외부 연결 앱(온라인) 모두에 대해 랜딩 존 내에서 앱 제공을 수행합니다.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3711,14 +3676,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3734,12 +3704,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
+          <t>HTTP/S 앱을 안전하게 제공하려면 응용 프로그램 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3756,14 +3726,19 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3754,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
+          <t>HTTP/S 앱의 보안을 위해 응용 프로그램 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3801,15 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3804,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
+          <t>랜딩 존 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 배포하고 보안 중인 앱을 사용합니다.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3847,15 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3854,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3893,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3904,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
+          <t>WAF 정책과 함께 Azure 전면 도어를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호합니다.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3943,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,12 +3954,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>프런트 도어 및 애플리케이션 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 프런트 도어에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3993,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4004,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
+          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 전역 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4043,15 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,18 +4054,18 @@
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
+          <t>사용자가 내부 응용 프로그램에만 액세스해야 하는 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었나요?</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4089,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,12 +4104,12 @@
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4139,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>Express 경로 다이렉트를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4189,19 +4176,15 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="n"/>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,12 +4200,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
+          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4239,19 +4222,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,12 +4250,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: Express 경로 다이렉트를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4289,19 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,18 +4300,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
+          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4339,19 +4322,15 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="n"/>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,12 +4346,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4389,19 +4368,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,18 +4392,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4439,19 +4414,15 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="n"/>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,12 +4438,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4489,19 +4460,15 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
-        </is>
-      </c>
-      <c r="I77" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I77" s="16" t="n"/>
       <c r="J77" s="23" t="n"/>
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
+          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4539,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,12 +4530,12 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
+          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4589,19 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4617,12 +4580,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
+          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4639,19 +4602,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,12 +4626,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,19 +4648,15 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I81" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I81" s="16" t="n"/>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,12 +4672,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
+          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4739,19 +4694,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,12 +4718,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
+          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,12 +4764,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,12 +4814,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
+          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4889,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,12 +4864,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4939,19 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4989,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5017,12 +4960,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
+          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,19 +4982,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,12 +5010,12 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
+          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5089,19 +5032,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,12 +5060,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5139,19 +5082,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,12 +5110,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5189,19 +5132,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,12 +5160,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,19 +5182,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,12 +5210,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5289,19 +5232,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,12 +5260,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5339,19 +5282,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,12 +5310,12 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
+          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,19 +5332,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,12 +5360,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5439,19 +5382,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5467,12 +5410,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
+          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5489,19 +5432,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5460,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>내부 연결(회사) 및 외부 연결 앱(온라인) 모두에 대해 랜딩 존 내에서 앱 제공을 수행합니다.</t>
+          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5539,19 +5482,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 제공하려면 응용 프로그램 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5589,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,12 +5560,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱의 보안을 위해 응용 프로그램 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5639,7 +5582,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5651,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5610,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 배포하고 보안 중인 앱을 사용합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,19 +5632,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,12 +5660,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5739,19 +5682,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,12 +5710,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure 전면 도어를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호합니다.</t>
+          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5789,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,12 +5760,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>프런트 도어 및 애플리케이션 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 프런트 도어에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 응용 프로그램 게이트웨이를 잠급니다.</t>
+          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5839,19 +5782,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,12 +5810,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 전역 앱을 제공합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5889,19 +5832,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,18 +5860,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>사용자가 내부 응용 프로그램에만 액세스해야 하는 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었나요?</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5939,19 +5882,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5967,12 +5910,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5989,19 +5932,15 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>앱 게재</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6039,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,12 +6006,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
+          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6089,19 +6028,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,12 +6056,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,19 +6078,15 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,12 +6102,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,19 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
+          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,19 +6215,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6317,12 +6243,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
+          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6339,7 +6265,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6351,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6367,12 +6293,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 다이렉트를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6389,14 +6315,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6412,12 +6343,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
+          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6439,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6462,12 +6393,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: Express 경로 다이렉트를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6484,19 +6415,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6512,12 +6443,12 @@
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
+          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6534,19 +6465,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6562,12 +6493,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
+          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6584,14 +6515,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6607,12 +6543,12 @@
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
+          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6629,15 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6653,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6675,15 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6694,17 +6638,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>단일 모니터 로그 작업 영역을 사용하여 Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에서 별도의 작업 영역을 요구하는 경우를 제외하고 중앙에서 플랫폼을 관리합니다.</t>
+          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6721,19 +6665,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6744,17 +6688,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존이 문서화되어 있습니까?</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6769,13 +6713,21 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6786,17 +6738,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure 저장소로 로그를 내보냅니다. 변경 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지울 수 없고 수정할 수 없도록 합니다.</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6813,19 +6765,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6836,17 +6788,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">액세스 제어 및 규정 준수 보고를 위해 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수 및 빠른 위반 검색을 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6863,19 +6815,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6886,17 +6838,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6913,19 +6865,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6936,17 +6888,17 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 자동화의 업데이트 관리를 Windows 및 Linux VM 모두에 대한 장기 패치 메커니즘으로 사용합니다. </t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6963,19 +6915,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6986,17 +6938,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>네트워크 감시자를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7013,19 +6965,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,17 +6988,17 @@
     <row r="129" ht="16.5" customHeight="1" s="13">
       <c r="A129" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>리소스 잠금을 사용하여 중요한 공유 서비스가 실수로 삭제되는 것을 방지합니다.</t>
+          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7063,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7086,23 +7038,23 @@
     <row r="130" ht="16.5" customHeight="1" s="13">
       <c r="A130" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>거부 정책을 사용하여 Azure 역할 할당을 보완합니다. 거부 정책과 Azure 역할 할당의 조합은 리소스를 배포 및 구성할 수 있는 사용자와 배포 및 구성할 수 있는 리소스를 적용할 수 있는 적절한 가드레일이 있는지 확인합니다.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7113,14 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7131,17 +7088,17 @@
     <row r="131" ht="16.5" customHeight="1" s="13">
       <c r="A131" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>서비스 및 리소스 상태 이벤트를 전체 플랫폼 모니터링 솔루션의 일부로 포함합니다. 플랫폼 관점에서 서비스 및 리소스 상태를 추적하는 것은 Azure에서 리소스 관리의 중요한 구성 요소입니다.</t>
+          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7158,14 +7115,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7176,17 +7138,17 @@
     <row r="132" ht="16.5" customHeight="1" s="13">
       <c r="A132" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>경고 및 작업 그룹을 Azure 서비스 상태 플랫폼의 일부로 포함하여 경고 또는 문제를 해결할 수 있도록 합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7203,14 +7165,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7221,17 +7188,17 @@
     <row r="133" ht="16.5" customHeight="1" s="13">
       <c r="A133" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>원시 로그 항목을 온-프레미스 모니터링 시스템으로 다시 보내지 마세요. 대신 Azure에서 생성된 데이터가 Azure에 유지된다는 원칙을 채택합니다. 온-프레미스 SIEM 통합이 필요한 경우 로그 대신 중요한 경고를 보냅니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7248,14 +7215,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7266,17 +7238,17 @@
     <row r="134" ht="16.5" customHeight="1" s="13">
       <c r="A134" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure 모니터 로그 분석 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7293,14 +7265,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7311,17 +7288,17 @@
     <row r="135" ht="16.5" customHeight="1" s="13">
       <c r="A135" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure 모니터 로그를 사용합니다.</t>
+          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7338,14 +7315,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7356,17 +7338,17 @@
     <row r="136" ht="16.5" customHeight="1" s="13">
       <c r="A136" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 Azure 진단 확장 로그 스토리지에 대한 랜딩 존 내의 공유 스토리지 계정을 사용합니다.</t>
+          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7383,14 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7401,17 +7388,17 @@
     <row r="137" ht="16.5" customHeight="1" s="13">
       <c r="A137" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure 모니터 경고를 사용하여 작업 경고를 생성합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7428,14 +7415,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7446,17 +7438,17 @@
     <row r="138" ht="16.5" customHeight="1" s="13">
       <c r="A138" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure 간 가상 컴퓨터 재해 복구 시나리오에 Azure 사이트 복구를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7473,14 +7465,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7491,17 +7483,17 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>기본 PaaS 서비스 재해 복구 기능을 사용하고 테스트해야 합니다.</t>
+          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,14 +7510,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7536,17 +7528,17 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능을 사용합니다. 파트너/고객이 Azure Backup 및 백업 관리를 크게 간소화할 수 있는 모든 새로운 기능을 알고 있는지 확인합니다.</t>
+          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7563,14 +7555,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7581,17 +7578,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>모니터링</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>모니터링 요구 사항이 평가되고 적절한 데이터 수집 및 경고 구성이 적용되었는지 확인</t>
+          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7608,14 +7605,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7626,23 +7628,23 @@
     <row r="142" ht="16.5" customHeight="1" s="13">
       <c r="A142" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
+          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7653,14 +7655,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7671,17 +7678,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,14 +7705,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7716,17 +7723,17 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7743,14 +7750,19 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7761,17 +7773,17 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7788,14 +7800,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7806,17 +7818,17 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7833,14 +7845,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7851,17 +7863,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7878,14 +7890,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7896,17 +7908,17 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7923,14 +7935,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7941,23 +7953,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7968,14 +7980,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7986,17 +7998,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8013,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8031,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8058,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8081,18 +8093,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
+          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8103,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8126,12 +8138,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8148,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8171,12 +8183,12 @@
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책 활용</t>
+          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8193,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8216,18 +8228,18 @@
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8238,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8261,18 +8273,18 @@
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8283,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8306,18 +8318,18 @@
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
+          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8328,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8351,18 +8363,18 @@
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8373,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8396,18 +8408,18 @@
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8418,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8441,12 +8453,12 @@
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8463,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8486,12 +8498,12 @@
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
+          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8508,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8531,18 +8543,18 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
+          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8553,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8576,12 +8588,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8598,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8626,13 +8638,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+          <t>Azure 정책 활용</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8643,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8666,12 +8678,12 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8688,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8711,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8733,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8756,12 +8768,12 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8778,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8801,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8823,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8846,18 +8858,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
+          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8868,14 +8880,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8891,12 +8903,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8913,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8936,12 +8948,12 @@
       </c>
       <c r="B171" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8958,14 +8970,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8981,12 +8993,12 @@
       </c>
       <c r="B172" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9003,14 +9015,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9026,12 +9038,12 @@
       </c>
       <c r="B173" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9048,14 +9060,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9066,23 +9078,23 @@
     <row r="174" ht="16.5" customHeight="1" s="13">
       <c r="A174" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
+          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9093,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9116,12 +9128,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
+          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9138,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9161,12 +9173,12 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9183,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9201,23 +9213,23 @@
     <row r="177" ht="16.5" customHeight="1" s="13">
       <c r="A177" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
       <c r="E177" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9228,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9246,17 +9258,17 @@
     <row r="178" ht="16.5" customHeight="1" s="13">
       <c r="A178" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9273,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9291,17 +9303,17 @@
     <row r="179" ht="16.5" customHeight="1" s="13">
       <c r="A179" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9318,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9341,18 +9353,18 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
       <c r="E180" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9363,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9381,23 +9393,23 @@
     <row r="181" ht="16.5" customHeight="1" s="13">
       <c r="A181" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9408,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9426,17 +9438,17 @@
     <row r="182" ht="16.5" customHeight="1" s="13">
       <c r="A182" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
+          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9453,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9471,23 +9483,23 @@
     <row r="183" ht="16.5" customHeight="1" s="13">
       <c r="A183" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B183" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9498,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9521,18 +9533,18 @@
       </c>
       <c r="B184" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
+          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
       <c r="E184" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9543,14 +9555,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9566,18 +9578,18 @@
       </c>
       <c r="B185" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
+          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
       <c r="E185" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9588,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9606,17 +9618,17 @@
     <row r="186" ht="16.5" customHeight="1" s="13">
       <c r="A186" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9633,14 +9645,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9656,18 +9668,18 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
       <c r="E187" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9678,14 +9690,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9701,18 +9713,18 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
       <c r="E188" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9723,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9746,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9768,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9791,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9813,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9836,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9858,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9881,18 +9893,18 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
       <c r="E192" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9903,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9926,12 +9938,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9948,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9966,23 +9978,23 @@
     <row r="194" ht="16.5" customHeight="1" s="13">
       <c r="A194" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure 프런트 도어 WAF의 로그를 저장합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
       <c r="E194" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9993,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10011,17 +10023,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 로그를 Microsoft Sentinel로 보냅니다. 공격을 감지하고 Front Door 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10038,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 간의 트래픽을 암호화해야 하는 경우 글로벌 VNet 피어링을 사용하여 지역 간에 가상 네트워크를 연결합니다.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: Express 경로 다이렉트를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4234,7 +4234,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: Express 경로 다이렉트를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,19 +4272,15 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="n"/>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4305,13 +4301,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
+          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4347,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4364,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4372,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4393,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4410,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4418,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4439,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
+          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4456,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4484,18 +4480,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
+          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,15 +4502,19 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
+          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,7 +4598,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4610,7 +4606,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
+          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
+          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4690,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4698,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4719,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4736,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
+          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
+          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4886,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4914,12 +4910,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
+          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
+          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
@@ -4994,7 +4994,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5044,7 +5044,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,7 +5082,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
@@ -5144,7 +5144,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,7 +5182,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5194,7 +5194,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,7 +5232,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5244,7 +5244,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,7 +5282,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5294,7 +5294,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,7 +5332,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5344,7 +5344,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,7 +5382,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5394,7 +5394,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
+          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,7 +5432,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5444,7 +5444,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
+          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,7 +5482,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5494,7 +5494,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5594,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5644,7 +5644,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5694,7 +5694,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
+          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,7 +5782,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5794,7 +5794,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
+          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5885,16 +5885,12 @@
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5915,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5932,15 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
+          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,19 +6028,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6061,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
+          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6078,7 +6074,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6086,7 +6082,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
+          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6143,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
+          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6165,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
+          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,7 +6215,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6227,7 +6227,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
+          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6277,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6327,7 +6327,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6370,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
+          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6427,7 +6427,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
+          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,7 +6465,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6477,7 +6477,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
+          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
+          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6670,14 +6670,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6715,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
+          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6770,14 +6770,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6877,7 +6877,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6927,7 +6927,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
+          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6977,7 +6977,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,7 +7115,7 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7127,7 +7127,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7177,7 +7177,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7270,14 +7270,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
+          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7320,14 +7320,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
+          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,19 +7415,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7448,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7472,7 +7467,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7493,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
+          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7511,13 +7506,18 @@
       <c r="H139" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
+          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
+          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7617,7 +7617,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7656,18 +7656,13 @@
       <c r="H142" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7688,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7706,13 +7701,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
+          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7751,18 +7751,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
+          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7807,7 +7802,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7828,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
+          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7845,14 +7840,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7873,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
+          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7890,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7908,23 +7903,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7935,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7963,13 +7958,13 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7980,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8003,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8025,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8043,7 +8038,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8053,13 +8048,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
+          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8070,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
+          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8115,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8160,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8188,7 +8183,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8205,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8233,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
+          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8250,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
+          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8295,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8340,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8368,13 +8363,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8385,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8408,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8475,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,13 +8498,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
+          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8520,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8565,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,18 +8583,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t>Azure 정책 활용</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8610,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8633,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책 활용</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,7 +8678,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8700,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8752,7 +8747,7 @@
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
+          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8797,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,13 +8813,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8842,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8863,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8887,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8908,7 +8903,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8932,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8977,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9010,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9060,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,18 +9078,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,13 +9128,13 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
+          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9150,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,7 +9173,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9195,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9242,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9292,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9337,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9382,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9403,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9420,14 +9415,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9448,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9510,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9602,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,12 +9618,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9645,14 +9640,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9668,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9690,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
+          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9782,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9820,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
+          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9870,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9988,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10012,7 +10007,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10023,41 +10018,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>확인되지 않음</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11617,7 +11612,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11701,7 +11696,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11758,43 +11753,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1122,12 +1122,12 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -1172,12 +1172,12 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1222,12 +1222,12 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
@@ -1272,12 +1272,12 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1322,12 +1322,12 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1372,12 +1372,12 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
@@ -1422,12 +1422,12 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
@@ -1472,12 +1472,12 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1522,12 +1522,12 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1622,12 +1622,12 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
@@ -1672,12 +1672,12 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1722,12 +1722,12 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1772,12 +1772,12 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -1822,12 +1822,12 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
@@ -1922,12 +1922,12 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -1972,12 +1972,12 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
@@ -2022,12 +2022,12 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
@@ -2072,12 +2072,12 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -2167,7 +2167,7 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -2212,7 +2212,7 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -2257,7 +2257,7 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -2302,7 +2302,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2348,12 +2348,12 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2398,12 +2398,12 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
@@ -2498,12 +2498,12 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2548,12 +2548,12 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
@@ -2598,12 +2598,12 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
@@ -2740,12 +2740,12 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2832,12 +2832,12 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2882,12 +2882,12 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2932,12 +2932,12 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -2982,12 +2982,12 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
@@ -3032,12 +3032,12 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3082,12 +3082,12 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -3132,7 +3132,7 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
@@ -3177,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3223,7 +3223,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3269,7 +3269,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3315,7 +3315,7 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
@@ -3360,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3406,7 +3406,7 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
@@ -3496,7 +3496,7 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
@@ -3541,7 +3541,7 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
@@ -3586,7 +3586,7 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
@@ -3631,7 +3631,7 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -3676,12 +3676,12 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱을 안전하게 제공하려면 응용 프로그램 게이트웨이 v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>HTTP/S 앱을 안전하게 제공하려면 애플리케이션 게이트웨이에서 WAF 보호 및 정책을 사용하도록 설정해야 합니다.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,12 +3726,12 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S 앱의 보안을 위해 응용 프로그램 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
+          <t>응용 프로그램 게이트웨이 v2 SKU를 사용하고 있는지 확인</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,19 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 배포하고 보안 중인 앱을 사용합니다.</t>
+          <t>HTTP/S 앱의 보안을 위해 응용 프로그램 게이트웨이 v2를 사용할 수 없는 경우 파트너 NVA를 사용합니다.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>랜딩 존 가상 네트워크 내의 인바운드 HTTP/S 연결에 사용되는 Azure 응용 프로그램 게이트웨이 v2 또는 파트너 NVA를 배포하고 보안 중인 앱을 사용합니다.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure 전면 도어를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호합니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>프런트 도어 및 애플리케이션 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 프런트 도어에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 응용 프로그램 게이트웨이를 잠급니다.</t>
+          <t>WAF 정책과 함께 Azure 전면 도어를 사용하여 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호합니다.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3976,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 전역 앱을 제공합니다.</t>
+          <t>프런트 도어 및 애플리케이션 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 프런트 도어에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,19 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,13 +4059,13 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>사용자가 내부 응용 프로그램에만 액세스해야 하는 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었나요?</t>
+          <t>트래픽 관리자를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 전역 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4076,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4109,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>사용자가 내부 응용 프로그램에만 액세스해야 하는 경우 Azure AD 응용 프로그램 프록시가 Azure AVD(가상 데스크톱)의 대안으로 간주되었나요?</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>암호화</t>
+          <t>앱 게재</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 다이렉트를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Azure AD 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,15 +4176,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4205,7 +4209,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">MACsec이 옵션이 아닌 가상 WAN 시나리오의 경우(예: Express 경로 다이렉트를 사용하지 않음) 가상 WAN VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
+          <t>Express 경로 다이렉트를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,19 +4226,15 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="n"/>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>암호화</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
+          <t xml:space="preserve">MACsec이 옵션이 아닌 시나리오(예: Express 경로 다이렉트를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 Express 경로 프라이빗 피어링을 통해 IPsec 터널을 설정합니다. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,15 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4301,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>Azure 트래픽 관리자와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4318,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4326,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>Azure Front Door와 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4372,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4393,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4418,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4439,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4456,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4464,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4480,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>허브 앤 스포크</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
+          <t>Azure 전면 도어와 함께 HEAD 상태 프로브를 사용합니다. Front Door가 애플리케이션에 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
+          <t>다음 시나리오에 대한 기존 허브 및 스포크 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 고려합니다: 단일 Azure 지역 내에 배포된 네트워크 아키텍처; 네트워크 아키텍처는 여러 Azure 지역에 걸쳐 있으며 지역 간 랜딩 영역에 대한 가상 네트워크 간의 전이적 연결이 필요하지 않습니다. Azure 지역에서 가상 네트워크를 연결하는 데 사용되는 글로벌 VNet 피어링을 사용하여 여러 Azure 지역에 걸쳐 있는 네트워크 아키텍처입니다. VPN과 Express 경로 연결 간의 전이적 연결이 필요하지 않은 네트워크 아키텍처; 기본 하이브리드 연결 방법은 Express 경로이며 VPN 연결 수는 VPN 게이트웨이당 30개 미만입니다. 중앙 집중식 NVA 및 세분화된 라우팅에 대한 종속성이 있습니다.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,15 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,7 +4585,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
+          <t>Express 경로 게이트웨이, VPN 게이트웨이 및 Azure 방화벽 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 서비스를 확인합니다. 필요한 경우 Active Directory 도메인 컨트롤러 및 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4610,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따르세요.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4644,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
+          <t>Azure 응용 프로그램 게이트웨이와 같은 인바운드 L7 서비스를 중앙 허브 가상 네트워크의 공유 서비스로 배포하지 마세요. 대신 앱과 함께 해당 랜딩 존에 배포합니다.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4690,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4698,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
+          <t>Express 경로와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure 경로 서버를 사용합니다.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4736,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
+          <t xml:space="preserve">Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 적은 수의 랜딩 영역이 지역 간에 통신해야 하는 경우 글로벌 가상 네트워크 피어링을 사용하여 랜딩 존 가상 네트워크를 연결합니다. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t xml:space="preserve">두 Azure 지역에 허브 및 스포크 네트워크 아키텍처를 배포하고 지역 전체의 모든 랜딩 존 간의 전송 연결이 필요한 경우 이중 회로가 있는 Express 경로를 사용하여 Azure 지역 전체의 랜딩 존 가상 네트워크에 대한 전송 연결을 제공합니다. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
+          <t>네트워크용 Azure 모니터를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,15 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4910,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 VNet 피어링 제한 및 Express 경로를 통해 보급할 수 있는 최대 접두사 수를 고려합니다.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4960,18 +4960,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>잡종</t>
+          <t>허브 앤 스포크</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정 사용</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,19 +4982,15 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5011,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>Express 경로를 Azure에 대한 기본 연결로 사용할 가능성을 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5032,19 +5028,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5061,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
+          <t>여러 Express 경로 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로가 선호되는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,19 +5078,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5111,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 Express 경로/VPN 게이트웨이에 올바른 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,19 +5128,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 Express 경로 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,19 +5178,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5211,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 Express 경로 다이렉트를 사용합니다.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,19 +5228,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5261,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath가 데이터 경로에서 Express 경로 게이트웨이를 우회하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,19 +5278,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5311,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>VPN 게이트웨이를 사용하여 분기 또는 원격 위치를 Azure에 연결합니다. 복원력을 높이려면 영역 중복 게이트웨이(사용 가능한 경우)를 배포합니다.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,19 +5328,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5361,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
+          <t>Express 경로 글로벌 도달을 사용하여 Express 경로를 통해 Azure에 연결된 대규모 사무실, 지역 본사 또는 데이터 센터를 연결합니다.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,19 +5378,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5411,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
+          <t>프로덕션 환경과 비프로덕션 환경을 분리하는 경우와 같이 트래픽 격리 또는 전용 대역폭이 필요한 경우 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,19 +5428,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5461,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
+          <t>기본 제공 Azure 모니터 메트릭을 사용하여 Express 경로 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,19 +5478,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5506,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
+          <t>환경 전반의 연결 모니터링을 위해 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5528,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5560,12 +5556,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>IP 플랜</t>
+          <t>잡종</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
+          <t>단일 피어링 위치에서 Express 경로 회로를 명시적으로 사용하지 마세요. 이렇게 하면 단일 실패 지점이 만들어지고 조직이 피어링 위치 중단에 취약해집니다.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5582,19 +5578,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
+          <t>Azure 지역 및 온-프레미스 위치에서 IP 주소 공간이 겹치지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5632,19 +5628,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
+          <t>개인 인터넷에 대한 주소 할당의 IP 주소를 사용해야 합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5682,19 +5678,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5711,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t xml:space="preserve">IP 주소 공간이 낭비되지 않도록 하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요. </t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5728,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
+          <t>VNET에 대한 CIDR 블록(공용 IP 주소 범위)이 없는지 확인합니다(특히 조직에서 소유하지 않은 경우).</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,19 +5778,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5811,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
+          <t>프로덕션 및 DR 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5832,19 +5828,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5861,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 확인을 위해 Azure 프라이빗 DNS를 사용합니다. 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 만듭니다.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5882,15 +5878,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 두 개 이상의 VM(가상 머신)에 배포된 기존 DNS 인프라(예: Active Directory 통합 DNS)를 사용합니다. 해당 DNS 서버를 사용하도록 가상 네트워크에서 DNS 설정을 구성합니다.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5928,19 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
+          <t>자체 DNS가 필요하고 배포하는 특수 워크로드(예: Red Hat OpenShift)는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,15 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6006,12 +6002,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>시찰</t>
+          <t>IP 플랜</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,15 +6024,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
+          <t>Network Watcher 패킷을 사용하여 제한된 캡처 창에도 불구하고 캡처합니다.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,15 +6074,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6103,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
+          <t>최신 버전의 NSG 흐름 로그가 필요한 세부 정보 수준을 제공하는지 평가합니다.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6143,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
+          <t>심층 패킷 검사가 필요한 시나리오에 파트너 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6165,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>인터넷</t>
+          <t>시찰</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
+          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마세요. 이 방법은 소규모 시나리오에 적합할 수 있지만 복잡성 및 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장되지 않습니다.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,19 +6215,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>Azure 방화벽을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, HTTP/S가 아닌 인바운드 연결 및 동/서 트래픽 필터링(조직에서 요구하는 경우)을 제어합니다.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6265,19 +6261,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6294,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>방화벽 관리자를 Virtual WAN과 함께 사용하여 Virtual WAN 허브 또는 허브 가상 네트워크에서 Azure 방화벽을 배포하고 관리합니다. 방화벽 관리자는 이제 Virtual WAN과 일반 가상 네트워크 모두에 대해 일반 공급됩니다.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6315,19 +6311,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6344,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
+          <t>글로벌 Azure 방화벽 정책을 만들어 글로벌 네트워크 환경에서 보안 상태를 제어하고 모든 Azure 방화벽 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 로컬 보안 팀에 증분 방화벽 정책을 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6365,19 +6361,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6394,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
+          <t>조직이 아웃바운드 연결을 보호하기 위해 이러한 솔루션을 사용하려는 경우 방화벽 관리자 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,19 +6411,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6444,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
+          <t>랜딩 존 가상 네트워크 내에서 WAF를 사용하여 인터넷에서 인바운드 HTTP/S 트래픽을 보호합니다.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,19 +6461,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6494,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure 정문 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결에 대해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6515,19 +6511,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6544,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
+          <t>Azure Front Door 및 Azure 응용 프로그램 게이트웨이를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure 정문에서만 트래픽을 수신하도록 Azure 응용 프로그램 게이트웨이를 잠급니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6561,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6589,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
+          <t>인바운드 HTTP/S 연결에 파트너 NVA가 필요한 경우 랜딩 존 가상 네트워크 내에 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6611,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6643,12 +6639,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>파스</t>
+          <t>인터넷</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호합니다.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6665,19 +6661,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6694,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
+          <t>PaaS 서비스에 대한 개인 통신이 필요한 경우 사용 가능한 다른 옵션을 고려합니다.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6711,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6744,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스는 여전히 공용 IP 주소를 사용하여 관리 평면 작업을 수행합니다. 이 통신이 끊어지지 않았는지 확인</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6765,19 +6761,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6794,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
+          <t>사용 가능한 경우 공유 Azure PaaS 서비스에 프라이빗 링크를 사용합니다.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6815,19 +6811,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6844,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>Express 경로 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6865,19 +6861,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6894,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
+          <t>Private Link를 사용할 수 없는 경우 가상 네트워크 서비스 엔드포인트 사용</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6915,19 +6911,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
+          <t>기본적으로 모든 서브넷에서 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6965,19 +6961,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6989,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
+          <t>NVA 필터링을 사용하지 않는 한 데이터 반출 문제가 있는 경우 가상 네트워크 서비스 엔드포인트를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7011,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7043,12 +7039,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>세분화</t>
+          <t>파스</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
+          <t>Azure에서 Azure 리소스로의 통신을 사용하도록 강제 터널링을 구현하지 마세요.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7061,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t xml:space="preserve">서브넷 생성을 랜딩 존 소유자에게 위임합니다. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>NSG를 사용하여 서브넷 전체의 트래픽과 플랫폼 전체의 동/서 트래픽(랜딩 존 간의 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,19 +7161,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7215,19 +7211,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7244,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 분할하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,19 +7261,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7294,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
+          <t>NSG 흐름 로그를 사용하도록 설정하고 트래픽 분석에 피드하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,19 +7311,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7339,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
+          <t>NSG를 사용하여 랜딩 존 간의 연결을 선택적으로 허용합니다.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7361,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7393,12 +7389,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN</t>
+          <t>세분화</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>Virtual WAN 토폴로지의 경우 조직에서 랜딩 존을 통과하는 트래픽에 대한 필터링 및 로깅 기능이 필요한 경우 Azure Firewall을 통해 랜딩 존 간에 트래픽을 라우팅합니다.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,14 +7411,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 가상 WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7461,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
+          <t>Azure 지역당 가상 WAN 허브를 사용하여 공통 글로벌 Azure 가상 WAN을 통해 Azure 지역에서 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7505,19 +7511,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7539,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
+          <t>가상 허브 라우팅 기능을 사용하여 VNet과 분기 간의 트래픽을 추가로 분할합니다.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7555,19 +7556,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7584,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
+          <t>Express 경로를 사용하여 가상 WAN 허브를 온-프레미스 데이터 센터에 연결</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,19 +7601,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7634,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
+          <t>사이트 간 VPN을 통해 분기 및 원격 위치를 가장 가까운 가상 WAN 허브에 연결하거나 SD-WAN 파트너 솔루션을 통해 가상 WAN에 대한 분기 연결을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7655,14 +7651,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7684,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
+          <t>지점 및 사이트 간 VPN을 통해 사용자를 가상 WAN 허브에 연결합니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7700,19 +7701,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지됨' 원칙을 따릅니다.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7750,14 +7751,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7779,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 Azure 방화벽을 배포합니다.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,14 +7796,19 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
+          <t>VWAN에서 파트너 네트워킹 기술 및 NVA를 배포할 때 파트너 공급업체의 지침에 따라 구성을 확인하여 충돌하는 구성이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7840,14 +7846,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>Azure 가상 WAN 및 Azure 방화벽 리소스가 연결 구독에 만들어졌는지 확인합니다.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7891,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7903,23 +7909,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>네트워크 아키텍처가 Azure 가상 WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7930,14 +7936,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,17 +7954,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>정문</t>
+          <t>가상 WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>가상 WAN용 Azure 모니터 인사이트를 사용하여 가상 WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,14 +7981,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8009,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
+          <t>Azure 정문에서 관리되는 TLS 인증서를 사용합니다. 운영 비용과 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8026,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8038,7 +8044,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8048,13 +8054,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
+          <t>Azure 정문에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8065,14 +8071,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8089,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>보안, 거버넌스 및 규정 준수</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,7 +8099,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
+          <t>Azure 프런트 도어 WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8110,14 +8116,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,7 +8144,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>Azure 전면 도어와 함께 종단 간 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8155,14 +8161,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8189,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
+          <t>Azure Front Door에서 HTTP-HTTPS 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8206,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
+          <t>Azure 프런트 도어 WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8251,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8279,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>워크로드에 맞게 Azure 프런트 도어 WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8296,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>Azure 전면 도어 WAF에서 방지 모드를 사용합니다. 방지 모드는 WAF가 악의적인 요청을 차단하도록 합니다.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8341,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,13 +8369,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
+          <t>Azure 프런트 도어 WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8380,14 +8386,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8414,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Azure 프런트 도어 WAF 봇 관리 규칙을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8431,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8459,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하여 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8476,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,13 +8504,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8515,14 +8521,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,7 +8549,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+          <t xml:space="preserve">Azure 전면 도어 WAF 속도 제한에 대해 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,14 +8566,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8583,18 +8589,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책 활용</t>
+          <t>Azure 프런트 도어 WAF를 사용하여 트래픽을 지오 필터링합니다. 예상 지역의 트래픽만 허용하고 다른 지역의 트래픽은 차단합니다.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8611,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,12 +8634,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>정문</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8650,14 +8656,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8684,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>Azure 정책 활용</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8701,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8729,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
+          <t>필요한 Azure 태그를 식별하고 추가 정책 모드를 사용하여 사용량을 적용합니다.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8746,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8774,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>규정 및 규정 준수 요구 사항을 Azure 정책 정의 및 Azure 역할 할당에 매핑합니다.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8785,14 +8791,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,13 +8819,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
+          <t>상속된 범위에서 할당할 수 있도록 최상위 루트 관리 그룹에서 Azure Policy 정의 설정</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8830,14 +8836,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>필요한 경우 하위 수준에서 제외를 사용하여 가장 높은 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,14 +8881,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8909,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
+          <t>Azure Policy를 사용하여 구독 및/또는 관리 그룹 수준에서 리소스 공급자 등록 제어</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8926,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8965,14 +8971,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>특정 범위에서 기본 제공 정책 기여자 역할을 할당하여 응용 프로그램 수준 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9010,14 +9016,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+          <t>루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한하여 상속된 범위에서 제외를 통해 관리하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9061,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9078,18 +9084,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9100,14 +9106,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,12 +9129,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>비밀</t>
+          <t>거버넌스</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure 정책을 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9145,14 +9151,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9179,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
+          <t>Azure 키 자격 증명 모음을 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9196,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9224,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>애플리케이션 및 지역마다 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9241,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9269,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하도록 일시 삭제 및 제거 정책을 사용하도록 설정하여 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9280,14 +9286,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9314,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제할 수 있는 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9325,14 +9331,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9370,14 +9376,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9404,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>키 및 인증서 순환을 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9415,14 +9421,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9449,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9466,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9494,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor 로그 분석 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9511,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9539,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9556,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>주체 암호화 기능을 위해 Microsoft 관리형 키를 기본값으로 설정하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9601,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9618,12 +9624,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>지역별 환경당 애플리케이션당 Azure 키 자격 증명 모음을 사용합니다.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9640,14 +9646,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9669,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비밀</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
+          <t>사용자 고유의 키를 가져오려는 경우 고려된 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9691,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9719,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
+          <t>Azure AD 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9736,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9764,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>장기 데이터 보존을 위해 Azure 활동 로그를 Azure 모니터 로그로 내보냅니다. 필요한 경우 2년 이상의 장기 저장을 위해 Azure 저장소로 내보냅니다.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9781,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9809,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
+          <t>모든 구독에 대해 클라우드용 Defender 표준을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,14 +9826,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9854,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9871,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9899,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure 모니터 로그 분석 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9916,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9944,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>새 Azure 서비스 구현 방법 계획</t>
+          <t>프로덕션 환경에 허용하기 전에 Azure 서비스에 대한 인시던트 대응 계획을 결정합니다.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9961,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9989,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
+          <t>적절한 경우 Azure 플랫폼에 액세스하기 위한 제로 트러스트 접근 방식을 구현합니다.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10006,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10018,41 +10024,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>보안, 거버넌스 및 규정 준수</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>새 Azure 서비스 구현 방법 계획</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>확인되지 않음</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10067,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Azure 서비스에 대한 서비스 요청 이행 방법 계획</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11825,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
